--- a/test-1.xlsx
+++ b/test-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarbhake\Desktop\Procurement-Project\New Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70256E43-C568-4D2D-BE5E-A8DB35A7616C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901715BB-F2C5-44F4-B28A-F53D2A63A21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B457EEF-D034-4865-88D3-AFCAE6B81B3E}"/>
+    <workbookView minimized="1" xWindow="3360" yWindow="3360" windowWidth="21600" windowHeight="11100" xr2:uid="{1B457EEF-D034-4865-88D3-AFCAE6B81B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -381,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,7 +395,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,20 +712,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACB214F-691A-430E-8E66-BA11671B5BCC}">
-  <dimension ref="A1:F326"/>
+  <dimension ref="A1:J326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D332" sqref="D332"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +745,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -751,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="str">
-        <f>TRIM(LEFT(B2, FIND(" Average", B2) - 1))</f>
+        <f t="shared" ref="C2:C65" si="0">TRIM(LEFT(B2, FIND(" Average", B2) - 1))</f>
         <v>Argentina</v>
       </c>
       <c r="D2" s="7">
@@ -764,7 +766,7 @@
         <v>23924.378500000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -772,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="str">
-        <f>TRIM(LEFT(B3, FIND(" Average", B3) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Argentina</v>
       </c>
       <c r="D3" s="7">
@@ -785,7 +787,7 @@
         <v>16643.4719</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -793,7 +795,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="str">
-        <f>TRIM(LEFT(B4, FIND(" Average", B4) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Argentina</v>
       </c>
       <c r="D4" s="7">
@@ -806,7 +808,7 @@
         <v>13036.765500000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -814,7 +816,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="str">
-        <f>TRIM(LEFT(B5, FIND(" Average", B5) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Argentina</v>
       </c>
       <c r="D5" s="7">
@@ -827,7 +829,7 @@
         <v>15846.150100000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -835,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="str">
-        <f>TRIM(LEFT(B6, FIND(" Average", B6) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Argentina</v>
       </c>
       <c r="D6" s="7">
@@ -848,7 +850,7 @@
         <v>6871.0136000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -856,7 +858,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="str">
-        <f>TRIM(LEFT(B7, FIND(" Average", B7) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Australia</v>
       </c>
       <c r="D7" s="7">
@@ -868,8 +870,10 @@
       <c r="F7" s="7">
         <v>130449.66</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -877,7 +881,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="str">
-        <f>TRIM(LEFT(B8, FIND(" Average", B8) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Australia</v>
       </c>
       <c r="D8" s="7">
@@ -889,8 +893,10 @@
       <c r="F8" s="7">
         <v>107469.12000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -898,7 +904,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="str">
-        <f>TRIM(LEFT(B9, FIND(" Average", B9) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Australia</v>
       </c>
       <c r="D9" s="7">
@@ -910,8 +916,10 @@
       <c r="F9" s="7">
         <v>84177.06</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -919,7 +927,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="str">
-        <f>TRIM(LEFT(B10, FIND(" Average", B10) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Australia</v>
       </c>
       <c r="D10" s="7">
@@ -931,8 +939,10 @@
       <c r="F10" s="7">
         <v>102963.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -940,7 +950,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="str">
-        <f>TRIM(LEFT(B11, FIND(" Average", B11) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Australia</v>
       </c>
       <c r="D11" s="7">
@@ -953,7 +963,7 @@
         <v>44417.340000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -961,7 +971,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="str">
-        <f>TRIM(LEFT(B12, FIND(" Average", B12) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Austria</v>
       </c>
       <c r="D12" s="7">
@@ -974,7 +984,7 @@
         <v>114395.76000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -982,7 +992,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="str">
-        <f>TRIM(LEFT(B13, FIND(" Average", B13) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Austria</v>
       </c>
       <c r="D13" s="7">
@@ -995,7 +1005,7 @@
         <v>110030.40000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1003,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="str">
-        <f>TRIM(LEFT(B14, FIND(" Average", B14) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Austria</v>
       </c>
       <c r="D14" s="7">
@@ -1016,7 +1026,7 @@
         <v>86182.920000000013</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1024,7 +1034,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="str">
-        <f>TRIM(LEFT(B15, FIND(" Average", B15) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Austria</v>
       </c>
       <c r="D15" s="7">
@@ -1037,7 +1047,7 @@
         <v>93740.760000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1055,7 @@
         <v>9</v>
       </c>
       <c r="C16" t="str">
-        <f>TRIM(LEFT(B16, FIND(" Average", B16) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Austria</v>
       </c>
       <c r="D16" s="7">
@@ -1058,7 +1068,7 @@
         <v>45699.12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1066,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="str">
-        <f>TRIM(LEFT(B17, FIND(" Average", B17) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Belgium</v>
       </c>
       <c r="D17" s="7">
@@ -1079,7 +1089,7 @@
         <v>127207.8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1087,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="str">
-        <f>TRIM(LEFT(B18, FIND(" Average", B18) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Belgium</v>
       </c>
       <c r="D18" s="7">
@@ -1100,7 +1110,7 @@
         <v>116874.36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1108,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="str">
-        <f>TRIM(LEFT(B19, FIND(" Average", B19) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Belgium</v>
       </c>
       <c r="D19" s="7">
@@ -1121,7 +1131,7 @@
         <v>91544.040000000008</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="str">
-        <f>TRIM(LEFT(B20, FIND(" Average", B20) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Belgium</v>
       </c>
       <c r="D20" s="7">
@@ -1142,7 +1152,7 @@
         <v>103460.76000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1160,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="str">
-        <f>TRIM(LEFT(B21, FIND(" Average", B21) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Belgium</v>
       </c>
       <c r="D21" s="7">
@@ -1163,7 +1173,7 @@
         <v>47035.08</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -1171,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="str">
-        <f>TRIM(LEFT(B22, FIND(" Average", B22) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Bosnia-Herzegovina -</v>
       </c>
       <c r="D22" s="7">
@@ -1184,7 +1194,7 @@
         <v>22111.65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1192,7 +1202,7 @@
         <v>11</v>
       </c>
       <c r="C23" t="str">
-        <f>TRIM(LEFT(B23, FIND(" Average", B23) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Bosnia-Herzegovina -</v>
       </c>
       <c r="D23" s="7">
@@ -1205,7 +1215,7 @@
         <v>18585.600000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -1213,7 +1223,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="str">
-        <f>TRIM(LEFT(B24, FIND(" Average", B24) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Bosnia-Herzegovina -</v>
       </c>
       <c r="D24" s="7">
@@ -1226,7 +1236,7 @@
         <v>14557.400000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1234,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="C25" t="str">
-        <f>TRIM(LEFT(B25, FIND(" Average", B25) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Bosnia-Herzegovina -</v>
       </c>
       <c r="D25" s="7">
@@ -1247,7 +1257,7 @@
         <v>16111.150000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1255,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="C26" t="str">
-        <f>TRIM(LEFT(B26, FIND(" Average", B26) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Bosnia-Herzegovina -</v>
       </c>
       <c r="D26" s="7">
@@ -1268,7 +1278,7 @@
         <v>7196.7500000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
@@ -1276,7 +1286,7 @@
         <v>12</v>
       </c>
       <c r="C27" t="str">
-        <f>TRIM(LEFT(B27, FIND(" Average", B27) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Brazil</v>
       </c>
       <c r="D27" s="7">
@@ -1289,7 +1299,7 @@
         <v>48634.49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -1297,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="C28" t="str">
-        <f>TRIM(LEFT(B28, FIND(" Average", B28) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Brazil</v>
       </c>
       <c r="D28" s="7">
@@ -1310,7 +1320,7 @@
         <v>29096.6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1328,7 @@
         <v>12</v>
       </c>
       <c r="C29" t="str">
-        <f>TRIM(LEFT(B29, FIND(" Average", B29) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Brazil</v>
       </c>
       <c r="D29" s="7">
@@ -1331,7 +1341,7 @@
         <v>22790.69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1349,7 @@
         <v>12</v>
       </c>
       <c r="C30" t="str">
-        <f>TRIM(LEFT(B30, FIND(" Average", B30) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Brazil</v>
       </c>
       <c r="D30" s="7">
@@ -1352,7 +1362,7 @@
         <v>26176.11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -1360,7 +1370,7 @@
         <v>12</v>
       </c>
       <c r="C31" t="str">
-        <f>TRIM(LEFT(B31, FIND(" Average", B31) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Brazil</v>
       </c>
       <c r="D31" s="7">
@@ -1373,7 +1383,7 @@
         <v>10157.4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
@@ -1381,7 +1391,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="str">
-        <f>TRIM(LEFT(B32, FIND(" Average", B32) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Bulgaria</v>
       </c>
       <c r="D32" s="7">
@@ -1394,7 +1404,7 @@
         <v>46875.950000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -1402,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="C33" t="str">
-        <f>TRIM(LEFT(B33, FIND(" Average", B33) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Bulgaria</v>
       </c>
       <c r="D33" s="7">
@@ -1415,7 +1425,7 @@
         <v>25962.2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -1423,7 +1433,7 @@
         <v>13</v>
       </c>
       <c r="C34" t="str">
-        <f>TRIM(LEFT(B34, FIND(" Average", B34) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Bulgaria</v>
       </c>
       <c r="D34" s="7">
@@ -1436,7 +1446,7 @@
         <v>20335.7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -1444,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="C35" t="str">
-        <f>TRIM(LEFT(B35, FIND(" Average", B35) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Bulgaria</v>
       </c>
       <c r="D35" s="7">
@@ -1457,7 +1467,7 @@
         <v>26439.600000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
@@ -1465,7 +1475,7 @@
         <v>13</v>
       </c>
       <c r="C36" t="str">
-        <f>TRIM(LEFT(B36, FIND(" Average", B36) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Bulgaria</v>
       </c>
       <c r="D36" s="7">
@@ -1478,7 +1488,7 @@
         <v>12207.250000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
@@ -1486,7 +1496,7 @@
         <v>14</v>
       </c>
       <c r="C37" t="str">
-        <f>TRIM(LEFT(B37, FIND(" Average", B37) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Canada</v>
       </c>
       <c r="D37" s="7">
@@ -1499,7 +1509,7 @@
         <v>123530.59999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -1507,7 +1517,7 @@
         <v>14</v>
       </c>
       <c r="C38" t="str">
-        <f>TRIM(LEFT(B38, FIND(" Average", B38) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Canada</v>
       </c>
       <c r="D38" s="7">
@@ -1520,7 +1530,7 @@
         <v>92882.28</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
@@ -1528,7 +1538,7 @@
         <v>14</v>
       </c>
       <c r="C39" t="str">
-        <f>TRIM(LEFT(B39, FIND(" Average", B39) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Canada</v>
       </c>
       <c r="D39" s="7">
@@ -1541,7 +1551,7 @@
         <v>72751.8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -1549,7 +1559,7 @@
         <v>14</v>
       </c>
       <c r="C40" t="str">
-        <f>TRIM(LEFT(B40, FIND(" Average", B40) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Canada</v>
       </c>
       <c r="D40" s="7">
@@ -1562,7 +1572,7 @@
         <v>86214.459999999992</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
@@ -1570,7 +1580,7 @@
         <v>14</v>
       </c>
       <c r="C41" t="str">
-        <f>TRIM(LEFT(B41, FIND(" Average", B41) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Canada</v>
       </c>
       <c r="D41" s="7">
@@ -1583,7 +1593,7 @@
         <v>37748.299999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
@@ -1591,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="C42" t="str">
-        <f>TRIM(LEFT(B42, FIND(" Average", B42) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Chile</v>
       </c>
       <c r="D42" s="7">
@@ -1604,7 +1614,7 @@
         <v>54830.858500000002</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1622,7 @@
         <v>15</v>
       </c>
       <c r="C43" t="str">
-        <f>TRIM(LEFT(B43, FIND(" Average", B43) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Chile</v>
       </c>
       <c r="D43" s="7">
@@ -1625,7 +1635,7 @@
         <v>30434.208200000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -1633,7 +1643,7 @@
         <v>15</v>
       </c>
       <c r="C44" t="str">
-        <f>TRIM(LEFT(B44, FIND(" Average", B44) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Chile</v>
       </c>
       <c r="D44" s="7">
@@ -1646,7 +1656,7 @@
         <v>23838.3079</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -1654,7 +1664,7 @@
         <v>15</v>
       </c>
       <c r="C45" t="str">
-        <f>TRIM(LEFT(B45, FIND(" Average", B45) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Chile</v>
       </c>
       <c r="D45" s="7">
@@ -1667,7 +1677,7 @@
         <v>29984.562300000001</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -1675,7 +1685,7 @@
         <v>15</v>
       </c>
       <c r="C46" t="str">
-        <f>TRIM(LEFT(B46, FIND(" Average", B46) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Chile</v>
       </c>
       <c r="D46" s="7">
@@ -1688,7 +1698,7 @@
         <v>11854.2842</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
@@ -1696,7 +1706,7 @@
         <v>16</v>
       </c>
       <c r="C47" t="str">
-        <f>TRIM(LEFT(B47, FIND(" Average", B47) - 1))</f>
+        <f t="shared" si="0"/>
         <v>China</v>
       </c>
       <c r="D47" s="7">
@@ -1709,7 +1719,7 @@
         <v>68068</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -1717,7 +1727,7 @@
         <v>16</v>
       </c>
       <c r="C48" t="str">
-        <f>TRIM(LEFT(B48, FIND(" Average", B48) - 1))</f>
+        <f t="shared" si="0"/>
         <v>China</v>
       </c>
       <c r="D48" s="7">
@@ -1730,7 +1740,7 @@
         <v>43132.460000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
@@ -1738,7 +1748,7 @@
         <v>16</v>
       </c>
       <c r="C49" t="str">
-        <f>TRIM(LEFT(B49, FIND(" Average", B49) - 1))</f>
+        <f t="shared" si="0"/>
         <v>China</v>
       </c>
       <c r="D49" s="7">
@@ -1751,7 +1761,7 @@
         <v>33784.660000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
@@ -1759,7 +1769,7 @@
         <v>16</v>
       </c>
       <c r="C50" t="str">
-        <f>TRIM(LEFT(B50, FIND(" Average", B50) - 1))</f>
+        <f t="shared" si="0"/>
         <v>China</v>
       </c>
       <c r="D50" s="7">
@@ -1772,7 +1782,7 @@
         <v>39978.820000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -1780,7 +1790,7 @@
         <v>16</v>
       </c>
       <c r="C51" t="str">
-        <f>TRIM(LEFT(B51, FIND(" Average", B51) - 1))</f>
+        <f t="shared" si="0"/>
         <v>China</v>
       </c>
       <c r="D51" s="7">
@@ -1793,7 +1803,7 @@
         <v>10879.960000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>1</v>
       </c>
@@ -1801,7 +1811,7 @@
         <v>17</v>
       </c>
       <c r="C52" t="str">
-        <f>TRIM(LEFT(B52, FIND(" Average", B52) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Colombia</v>
       </c>
       <c r="D52" s="7">
@@ -1814,7 +1824,7 @@
         <v>27628.701359999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>2</v>
       </c>
@@ -1822,7 +1832,7 @@
         <v>17</v>
       </c>
       <c r="C53" t="str">
-        <f>TRIM(LEFT(B53, FIND(" Average", B53) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Colombia</v>
       </c>
       <c r="D53" s="7">
@@ -1835,7 +1845,7 @@
         <v>20898.543899999997</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -1843,7 +1853,7 @@
         <v>17</v>
       </c>
       <c r="C54" t="str">
-        <f>TRIM(LEFT(B54, FIND(" Average", B54) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Colombia</v>
       </c>
       <c r="D54" s="7">
@@ -1856,7 +1866,7 @@
         <v>16369.187899999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>4</v>
       </c>
@@ -1864,7 +1874,7 @@
         <v>17</v>
       </c>
       <c r="C55" t="str">
-        <f>TRIM(LEFT(B55, FIND(" Average", B55) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Colombia</v>
       </c>
       <c r="D55" s="7">
@@ -1877,7 +1887,7 @@
         <v>18544.573839999997</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
@@ -1885,7 +1895,7 @@
         <v>17</v>
       </c>
       <c r="C56" t="str">
-        <f>TRIM(LEFT(B56, FIND(" Average", B56) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Colombia</v>
       </c>
       <c r="D56" s="7">
@@ -1898,7 +1908,7 @@
         <v>8048.9260799999993</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>1</v>
       </c>
@@ -1906,7 +1916,7 @@
         <v>18</v>
       </c>
       <c r="C57" t="str">
-        <f>TRIM(LEFT(B57, FIND(" Average", B57) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Costa Rica</v>
       </c>
       <c r="D57" s="7">
@@ -1919,7 +1929,7 @@
         <v>69702.983999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -1927,7 +1937,7 @@
         <v>18</v>
       </c>
       <c r="C58" t="str">
-        <f>TRIM(LEFT(B58, FIND(" Average", B58) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Costa Rica</v>
       </c>
       <c r="D58" s="7">
@@ -1940,7 +1950,7 @@
         <v>41989.3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -1948,7 +1958,7 @@
         <v>18</v>
       </c>
       <c r="C59" t="str">
-        <f>TRIM(LEFT(B59, FIND(" Average", B59) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Costa Rica</v>
       </c>
       <c r="D59" s="7">
@@ -1961,7 +1971,7 @@
         <v>32889.038</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +1979,7 @@
         <v>18</v>
       </c>
       <c r="C60" t="str">
-        <f>TRIM(LEFT(B60, FIND(" Average", B60) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Costa Rica</v>
       </c>
       <c r="D60" s="7">
@@ -1982,7 +1992,7 @@
         <v>42590.451999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +2000,7 @@
         <v>18</v>
       </c>
       <c r="C61" t="str">
-        <f>TRIM(LEFT(B61, FIND(" Average", B61) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Costa Rica</v>
       </c>
       <c r="D61" s="7">
@@ -2003,7 +2013,7 @@
         <v>15871.544</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>1</v>
       </c>
@@ -2011,7 +2021,7 @@
         <v>19</v>
       </c>
       <c r="C62" t="str">
-        <f>TRIM(LEFT(B62, FIND(" Average", B62) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Croatia</v>
       </c>
       <c r="D62" s="7">
@@ -2024,7 +2034,7 @@
         <v>5366.7118800000007</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
@@ -2032,7 +2042,7 @@
         <v>19</v>
       </c>
       <c r="C63" t="str">
-        <f>TRIM(LEFT(B63, FIND(" Average", B63) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Croatia</v>
       </c>
       <c r="D63" s="7">
@@ -2045,7 +2055,7 @@
         <v>5288.3698800000002</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
@@ -2053,7 +2063,7 @@
         <v>19</v>
       </c>
       <c r="C64" t="str">
-        <f>TRIM(LEFT(B64, FIND(" Average", B64) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Croatia</v>
       </c>
       <c r="D64" s="7">
@@ -2066,7 +2076,7 @@
         <v>4142.1552000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>4</v>
       </c>
@@ -2074,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="C65" t="str">
-        <f>TRIM(LEFT(B65, FIND(" Average", B65) - 1))</f>
+        <f t="shared" si="0"/>
         <v>Croatia</v>
       </c>
       <c r="D65" s="7">
@@ -2087,7 +2097,7 @@
         <v>4808.6319600000006</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>5</v>
       </c>
@@ -2095,7 +2105,7 @@
         <v>19</v>
       </c>
       <c r="C66" t="str">
-        <f>TRIM(LEFT(B66, FIND(" Average", B66) - 1))</f>
+        <f t="shared" ref="C66:C129" si="1">TRIM(LEFT(B66, FIND(" Average", B66) - 1))</f>
         <v>Croatia</v>
       </c>
       <c r="D66" s="7">
@@ -2108,7 +2118,7 @@
         <v>2070.7927200000004</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>1</v>
       </c>
@@ -2116,7 +2126,7 @@
         <v>20</v>
       </c>
       <c r="C67" t="str">
-        <f>TRIM(LEFT(B67, FIND(" Average", B67) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Czech Republic</v>
       </c>
       <c r="D67" s="7">
@@ -2129,7 +2139,7 @@
         <v>59337.608</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -2137,7 +2147,7 @@
         <v>20</v>
       </c>
       <c r="C68" t="str">
-        <f>TRIM(LEFT(B68, FIND(" Average", B68) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Czech Republic</v>
       </c>
       <c r="D68" s="7">
@@ -2150,7 +2160,7 @@
         <v>45198.383999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
@@ -2158,7 +2168,7 @@
         <v>20</v>
       </c>
       <c r="C69" t="str">
-        <f>TRIM(LEFT(B69, FIND(" Average", B69) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Czech Republic</v>
       </c>
       <c r="D69" s="7">
@@ -2171,7 +2181,7 @@
         <v>35402.311999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>4</v>
       </c>
@@ -2179,7 +2189,7 @@
         <v>20</v>
       </c>
       <c r="C70" t="str">
-        <f>TRIM(LEFT(B70, FIND(" Average", B70) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Czech Republic</v>
       </c>
       <c r="D70" s="7">
@@ -2192,7 +2202,7 @@
         <v>43910.547999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>5</v>
       </c>
@@ -2200,7 +2210,7 @@
         <v>20</v>
       </c>
       <c r="C71" t="str">
-        <f>TRIM(LEFT(B71, FIND(" Average", B71) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Czech Republic</v>
       </c>
       <c r="D71" s="7">
@@ -2213,7 +2223,7 @@
         <v>18386.016</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>1</v>
       </c>
@@ -2221,7 +2231,7 @@
         <v>21</v>
       </c>
       <c r="C72" t="str">
-        <f>TRIM(LEFT(B72, FIND(" Average", B72) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Denmark</v>
       </c>
       <c r="D72" s="7">
@@ -2234,7 +2244,7 @@
         <v>135827.1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>2</v>
       </c>
@@ -2242,7 +2252,7 @@
         <v>21</v>
       </c>
       <c r="C73" t="str">
-        <f>TRIM(LEFT(B73, FIND(" Average", B73) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Denmark</v>
       </c>
       <c r="D73" s="7">
@@ -2255,7 +2265,7 @@
         <v>125937.29999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>3</v>
       </c>
@@ -2263,7 +2273,7 @@
         <v>21</v>
       </c>
       <c r="C74" t="str">
-        <f>TRIM(LEFT(B74, FIND(" Average", B74) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Denmark</v>
       </c>
       <c r="D74" s="7">
@@ -2276,7 +2286,7 @@
         <v>98642.25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>4</v>
       </c>
@@ -2284,7 +2294,7 @@
         <v>21</v>
       </c>
       <c r="C75" t="str">
-        <f>TRIM(LEFT(B75, FIND(" Average", B75) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Denmark</v>
       </c>
       <c r="D75" s="7">
@@ -2297,7 +2307,7 @@
         <v>127752.29999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>5</v>
       </c>
@@ -2305,7 +2315,7 @@
         <v>21</v>
       </c>
       <c r="C76" t="str">
-        <f>TRIM(LEFT(B76, FIND(" Average", B76) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Denmark</v>
       </c>
       <c r="D76" s="7">
@@ -2318,7 +2328,7 @@
         <v>61764.45</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>1</v>
       </c>
@@ -2326,7 +2336,7 @@
         <v>22</v>
       </c>
       <c r="C77" t="str">
-        <f>TRIM(LEFT(B77, FIND(" Average", B77) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Ecuador</v>
       </c>
       <c r="D77" s="7">
@@ -2339,7 +2349,7 @@
         <v>1297.46</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>2</v>
       </c>
@@ -2347,7 +2357,7 @@
         <v>22</v>
       </c>
       <c r="C78" t="str">
-        <f>TRIM(LEFT(B78, FIND(" Average", B78) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Ecuador</v>
       </c>
       <c r="D78" s="7">
@@ -2360,7 +2370,7 @@
         <v>764.1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -2368,7 +2378,7 @@
         <v>22</v>
       </c>
       <c r="C79" t="str">
-        <f>TRIM(LEFT(B79, FIND(" Average", B79) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Ecuador</v>
       </c>
       <c r="D79" s="7">
@@ -2381,7 +2391,7 @@
         <v>598.52</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +2399,7 @@
         <v>22</v>
       </c>
       <c r="C80" t="str">
-        <f>TRIM(LEFT(B80, FIND(" Average", B80) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Ecuador</v>
       </c>
       <c r="D80" s="7">
@@ -2402,7 +2412,7 @@
         <v>702.54</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>5</v>
       </c>
@@ -2410,7 +2420,7 @@
         <v>22</v>
       </c>
       <c r="C81" t="str">
-        <f>TRIM(LEFT(B81, FIND(" Average", B81) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Ecuador</v>
       </c>
       <c r="D81" s="7">
@@ -2423,7 +2433,7 @@
         <v>278.40000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>1</v>
       </c>
@@ -2431,7 +2441,7 @@
         <v>23</v>
       </c>
       <c r="C82" t="str">
-        <f>TRIM(LEFT(B82, FIND(" Average", B82) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Egypt</v>
       </c>
       <c r="D82" s="7">
@@ -2444,7 +2454,7 @@
         <v>8343.9719999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>2</v>
       </c>
@@ -2452,7 +2462,7 @@
         <v>23</v>
       </c>
       <c r="C83" t="str">
-        <f>TRIM(LEFT(B83, FIND(" Average", B83) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Egypt</v>
       </c>
       <c r="D83" s="7">
@@ -2465,7 +2475,7 @@
         <v>5900.8740000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
@@ -2473,7 +2483,7 @@
         <v>23</v>
       </c>
       <c r="C84" t="str">
-        <f>TRIM(LEFT(B84, FIND(" Average", B84) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Egypt</v>
       </c>
       <c r="D84" s="7">
@@ -2486,7 +2496,7 @@
         <v>4622.0370000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>4</v>
       </c>
@@ -2494,7 +2504,7 @@
         <v>23</v>
       </c>
       <c r="C85" t="str">
-        <f>TRIM(LEFT(B85, FIND(" Average", B85) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Egypt</v>
       </c>
       <c r="D85" s="7">
@@ -2507,7 +2517,7 @@
         <v>5827.9830000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>5</v>
       </c>
@@ -2515,7 +2525,7 @@
         <v>23</v>
       </c>
       <c r="C86" t="str">
-        <f>TRIM(LEFT(B86, FIND(" Average", B86) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Egypt</v>
       </c>
       <c r="D86" s="7">
@@ -2528,7 +2538,7 @@
         <v>2297.652</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>1</v>
       </c>
@@ -2536,7 +2546,7 @@
         <v>24</v>
       </c>
       <c r="C87" t="str">
-        <f>TRIM(LEFT(B87, FIND(" Average", B87) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Estonia</v>
       </c>
       <c r="D87" s="7">
@@ -2549,7 +2559,7 @@
         <v>53583.310000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>2</v>
       </c>
@@ -2557,7 +2567,7 @@
         <v>24</v>
       </c>
       <c r="C88" t="str">
-        <f>TRIM(LEFT(B88, FIND(" Average", B88) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Estonia</v>
       </c>
       <c r="D88" s="7">
@@ -2570,7 +2580,7 @@
         <v>41766.620000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
@@ -2578,7 +2588,7 @@
         <v>24</v>
       </c>
       <c r="C89" t="str">
-        <f>TRIM(LEFT(B89, FIND(" Average", B89) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Estonia</v>
       </c>
       <c r="D89" s="7">
@@ -2591,7 +2601,7 @@
         <v>32714.170000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>4</v>
       </c>
@@ -2599,7 +2609,7 @@
         <v>24</v>
       </c>
       <c r="C90" t="str">
-        <f>TRIM(LEFT(B90, FIND(" Average", B90) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Estonia</v>
       </c>
       <c r="D90" s="7">
@@ -2612,7 +2622,7 @@
         <v>40255.880000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>5</v>
       </c>
@@ -2620,7 +2630,7 @@
         <v>24</v>
       </c>
       <c r="C91" t="str">
-        <f>TRIM(LEFT(B91, FIND(" Average", B91) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Estonia</v>
       </c>
       <c r="D91" s="7">
@@ -2633,7 +2643,7 @@
         <v>16974.57</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>1</v>
       </c>
@@ -2641,7 +2651,7 @@
         <v>25</v>
       </c>
       <c r="C92" t="str">
-        <f>TRIM(LEFT(B92, FIND(" Average", B92) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Finland</v>
       </c>
       <c r="D92" s="7">
@@ -2654,7 +2664,7 @@
         <v>118052.64000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>2</v>
       </c>
@@ -2662,7 +2672,7 @@
         <v>25</v>
       </c>
       <c r="C93" t="str">
-        <f>TRIM(LEFT(B93, FIND(" Average", B93) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Finland</v>
       </c>
       <c r="D93" s="7">
@@ -2675,7 +2685,7 @@
         <v>101923.92000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
@@ -2683,7 +2693,7 @@
         <v>25</v>
       </c>
       <c r="C94" t="str">
-        <f>TRIM(LEFT(B94, FIND(" Average", B94) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Finland</v>
       </c>
       <c r="D94" s="7">
@@ -2696,7 +2706,7 @@
         <v>79833.600000000006</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>4</v>
       </c>
@@ -2704,7 +2714,7 @@
         <v>25</v>
       </c>
       <c r="C95" t="str">
-        <f>TRIM(LEFT(B95, FIND(" Average", B95) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Finland</v>
       </c>
       <c r="D95" s="7">
@@ -2717,7 +2727,7 @@
         <v>96212.88</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>5</v>
       </c>
@@ -2725,7 +2735,7 @@
         <v>25</v>
       </c>
       <c r="C96" t="str">
-        <f>TRIM(LEFT(B96, FIND(" Average", B96) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Finland</v>
       </c>
       <c r="D96" s="7">
@@ -2738,7 +2748,7 @@
         <v>46662.48</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>1</v>
       </c>
@@ -2746,7 +2756,7 @@
         <v>26</v>
       </c>
       <c r="C97" t="str">
-        <f>TRIM(LEFT(B97, FIND(" Average", B97) - 1))</f>
+        <f t="shared" si="1"/>
         <v>France</v>
       </c>
       <c r="D97" s="7">
@@ -2759,7 +2769,7 @@
         <v>102342.96</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -2767,7 +2777,7 @@
         <v>26</v>
       </c>
       <c r="C98" t="str">
-        <f>TRIM(LEFT(B98, FIND(" Average", B98) - 1))</f>
+        <f t="shared" si="1"/>
         <v>France</v>
       </c>
       <c r="D98" s="7">
@@ -2780,7 +2790,7 @@
         <v>90435.96</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
@@ -2788,7 +2798,7 @@
         <v>26</v>
       </c>
       <c r="C99" t="str">
-        <f>TRIM(LEFT(B99, FIND(" Average", B99) - 1))</f>
+        <f t="shared" si="1"/>
         <v>France</v>
       </c>
       <c r="D99" s="7">
@@ -2801,7 +2811,7 @@
         <v>70836.12000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>4</v>
       </c>
@@ -2809,7 +2819,7 @@
         <v>26</v>
       </c>
       <c r="C100" t="str">
-        <f>TRIM(LEFT(B100, FIND(" Average", B100) - 1))</f>
+        <f t="shared" si="1"/>
         <v>France</v>
       </c>
       <c r="D100" s="7">
@@ -2822,7 +2832,7 @@
         <v>79129.440000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>5</v>
       </c>
@@ -2830,7 +2840,7 @@
         <v>26</v>
       </c>
       <c r="C101" t="str">
-        <f>TRIM(LEFT(B101, FIND(" Average", B101) - 1))</f>
+        <f t="shared" si="1"/>
         <v>France</v>
       </c>
       <c r="D101" s="7">
@@ -2843,7 +2853,7 @@
         <v>35516.880000000005</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>1</v>
       </c>
@@ -2851,7 +2861,7 @@
         <v>27</v>
       </c>
       <c r="C102" t="str">
-        <f>TRIM(LEFT(B102, FIND(" Average", B102) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Georgia</v>
       </c>
       <c r="D102" s="7">
@@ -2864,7 +2874,7 @@
         <v>73222.63</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>2</v>
       </c>
@@ -2872,7 +2882,7 @@
         <v>27</v>
       </c>
       <c r="C103" t="str">
-        <f>TRIM(LEFT(B103, FIND(" Average", B103) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Georgia</v>
       </c>
       <c r="D103" s="7">
@@ -2885,7 +2895,7 @@
         <v>25191.45</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>3</v>
       </c>
@@ -2893,7 +2903,7 @@
         <v>27</v>
       </c>
       <c r="C104" t="str">
-        <f>TRIM(LEFT(B104, FIND(" Average", B104) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Georgia</v>
       </c>
       <c r="D104" s="7">
@@ -2906,7 +2916,7 @@
         <v>19732.099999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>4</v>
       </c>
@@ -2914,7 +2924,7 @@
         <v>27</v>
       </c>
       <c r="C105" t="str">
-        <f>TRIM(LEFT(B105, FIND(" Average", B105) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Georgia</v>
       </c>
       <c r="D105" s="7">
@@ -2927,7 +2937,7 @@
         <v>15475.25</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>5</v>
       </c>
@@ -2935,7 +2945,7 @@
         <v>27</v>
       </c>
       <c r="C106" t="str">
-        <f>TRIM(LEFT(B106, FIND(" Average", B106) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Georgia</v>
       </c>
       <c r="D106" s="7">
@@ -2948,7 +2958,7 @@
         <v>5881.15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>1</v>
       </c>
@@ -2956,7 +2966,7 @@
         <v>28</v>
       </c>
       <c r="C107" t="str">
-        <f>TRIM(LEFT(B107, FIND(" Average", B107) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Germany</v>
       </c>
       <c r="D107" s="7">
@@ -2969,7 +2979,7 @@
         <v>128579.40000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>2</v>
       </c>
@@ -2977,7 +2987,7 @@
         <v>28</v>
       </c>
       <c r="C108" t="str">
-        <f>TRIM(LEFT(B108, FIND(" Average", B108) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Germany</v>
       </c>
       <c r="D108" s="7">
@@ -2990,7 +3000,7 @@
         <v>109968.84000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
@@ -2998,7 +3008,7 @@
         <v>28</v>
       </c>
       <c r="C109" t="str">
-        <f>TRIM(LEFT(B109, FIND(" Average", B109) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Germany</v>
       </c>
       <c r="D109" s="7">
@@ -3011,7 +3021,7 @@
         <v>86135.400000000009</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>4</v>
       </c>
@@ -3019,7 +3029,7 @@
         <v>28</v>
       </c>
       <c r="C110" t="str">
-        <f>TRIM(LEFT(B110, FIND(" Average", B110) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Germany</v>
       </c>
       <c r="D110" s="7">
@@ -3032,7 +3042,7 @@
         <v>96716.160000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
@@ -3040,7 +3050,7 @@
         <v>28</v>
       </c>
       <c r="C111" t="str">
-        <f>TRIM(LEFT(B111, FIND(" Average", B111) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Germany</v>
       </c>
       <c r="D111" s="7">
@@ -3053,7 +3063,7 @@
         <v>42921.36</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
@@ -3061,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="C112" t="str">
-        <f>TRIM(LEFT(B112, FIND(" Average", B112) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Greece</v>
       </c>
       <c r="D112" s="7">
@@ -3074,7 +3084,7 @@
         <v>68443.92</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>2</v>
       </c>
@@ -3082,7 +3092,7 @@
         <v>29</v>
       </c>
       <c r="C113" t="str">
-        <f>TRIM(LEFT(B113, FIND(" Average", B113) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Greece</v>
       </c>
       <c r="D113" s="7">
@@ -3095,7 +3105,7 @@
         <v>55577.880000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
@@ -3103,7 +3113,7 @@
         <v>29</v>
       </c>
       <c r="C114" t="str">
-        <f>TRIM(LEFT(B114, FIND(" Average", B114) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Greece</v>
       </c>
       <c r="D114" s="7">
@@ -3116,7 +3126,7 @@
         <v>43532.639999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>4</v>
       </c>
@@ -3124,7 +3134,7 @@
         <v>29</v>
       </c>
       <c r="C115" t="str">
-        <f>TRIM(LEFT(B115, FIND(" Average", B115) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Greece</v>
       </c>
       <c r="D115" s="7">
@@ -3137,7 +3147,7 @@
         <v>50734.080000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>5</v>
       </c>
@@ -3145,7 +3155,7 @@
         <v>29</v>
       </c>
       <c r="C116" t="str">
-        <f>TRIM(LEFT(B116, FIND(" Average", B116) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Greece</v>
       </c>
       <c r="D116" s="7">
@@ -3158,7 +3168,7 @@
         <v>23263.200000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>1</v>
       </c>
@@ -3166,7 +3176,7 @@
         <v>30</v>
       </c>
       <c r="C117" t="str">
-        <f>TRIM(LEFT(B117, FIND(" Average", B117) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Guatemala</v>
       </c>
       <c r="D117" s="7">
@@ -3179,7 +3189,7 @@
         <v>77451.400000000009</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>2</v>
       </c>
@@ -3187,7 +3197,7 @@
         <v>30</v>
       </c>
       <c r="C118" t="str">
-        <f>TRIM(LEFT(B118, FIND(" Average", B118) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Guatemala</v>
       </c>
       <c r="D118" s="7">
@@ -3200,7 +3210,7 @@
         <v>39270.270000000004</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>3</v>
       </c>
@@ -3208,7 +3218,7 @@
         <v>30</v>
       </c>
       <c r="C119" t="str">
-        <f>TRIM(LEFT(B119, FIND(" Average", B119) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Guatemala</v>
       </c>
       <c r="D119" s="7">
@@ -3221,7 +3231,7 @@
         <v>30759.690000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>4</v>
       </c>
@@ -3229,7 +3239,7 @@
         <v>30</v>
       </c>
       <c r="C120" t="str">
-        <f>TRIM(LEFT(B120, FIND(" Average", B120) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Guatemala</v>
       </c>
       <c r="D120" s="7">
@@ -3242,7 +3252,7 @@
         <v>35936.94</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>5</v>
       </c>
@@ -3250,7 +3260,7 @@
         <v>30</v>
       </c>
       <c r="C121" t="str">
-        <f>TRIM(LEFT(B121, FIND(" Average", B121) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Guatemala</v>
       </c>
       <c r="D121" s="7">
@@ -3263,7 +3273,7 @@
         <v>11528.4</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>1</v>
       </c>
@@ -3271,7 +3281,7 @@
         <v>31</v>
       </c>
       <c r="C122" t="str">
-        <f>TRIM(LEFT(B122, FIND(" Average", B122) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Hungary</v>
       </c>
       <c r="D122" s="7">
@@ -3284,7 +3294,7 @@
         <v>48240.527999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>2</v>
       </c>
@@ -3292,7 +3302,7 @@
         <v>31</v>
       </c>
       <c r="C123" t="str">
-        <f>TRIM(LEFT(B123, FIND(" Average", B123) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Hungary</v>
       </c>
       <c r="D123" s="7">
@@ -3305,7 +3315,7 @@
         <v>33400.029600000002</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>3</v>
       </c>
@@ -3313,7 +3323,7 @@
         <v>31</v>
       </c>
       <c r="C124" t="str">
-        <f>TRIM(LEFT(B124, FIND(" Average", B124) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Hungary</v>
       </c>
       <c r="D124" s="7">
@@ -3326,7 +3336,7 @@
         <v>26161.136399999999</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>4</v>
       </c>
@@ -3334,7 +3344,7 @@
         <v>31</v>
       </c>
       <c r="C125" t="str">
-        <f>TRIM(LEFT(B125, FIND(" Average", B125) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Hungary</v>
       </c>
       <c r="D125" s="7">
@@ -3347,7 +3357,7 @@
         <v>30149.7336</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>5</v>
       </c>
@@ -3355,7 +3365,7 @@
         <v>31</v>
       </c>
       <c r="C126" t="str">
-        <f>TRIM(LEFT(B126, FIND(" Average", B126) - 1))</f>
+        <f t="shared" si="1"/>
         <v>Hungary</v>
       </c>
       <c r="D126" s="7">
@@ -3368,7 +3378,7 @@
         <v>12790.008</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>1</v>
       </c>
@@ -3376,7 +3386,7 @@
         <v>32</v>
       </c>
       <c r="C127" t="str">
-        <f>TRIM(LEFT(B127, FIND(" Average", B127) - 1))</f>
+        <f t="shared" si="1"/>
         <v>India</v>
       </c>
       <c r="D127" s="7">
@@ -3389,7 +3399,7 @@
         <v>30866.736000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>2</v>
       </c>
@@ -3397,7 +3407,7 @@
         <v>32</v>
       </c>
       <c r="C128" t="str">
-        <f>TRIM(LEFT(B128, FIND(" Average", B128) - 1))</f>
+        <f t="shared" si="1"/>
         <v>India</v>
       </c>
       <c r="D128" s="7">
@@ -3410,7 +3420,7 @@
         <v>17223.876</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
@@ -3418,7 +3428,7 @@
         <v>32</v>
       </c>
       <c r="C129" t="str">
-        <f>TRIM(LEFT(B129, FIND(" Average", B129) - 1))</f>
+        <f t="shared" si="1"/>
         <v>India</v>
       </c>
       <c r="D129" s="7">
@@ -3431,7 +3441,7 @@
         <v>13491.132</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>4</v>
       </c>
@@ -3439,7 +3449,7 @@
         <v>32</v>
       </c>
       <c r="C130" t="str">
-        <f>TRIM(LEFT(B130, FIND(" Average", B130) - 1))</f>
+        <f t="shared" ref="C130:C193" si="2">TRIM(LEFT(B130, FIND(" Average", B130) - 1))</f>
         <v>India</v>
       </c>
       <c r="D130" s="7">
@@ -3452,7 +3462,7 @@
         <v>16029.576000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>5</v>
       </c>
@@ -3460,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="C131" t="str">
-        <f>TRIM(LEFT(B131, FIND(" Average", B131) - 1))</f>
+        <f t="shared" si="2"/>
         <v>India</v>
       </c>
       <c r="D131" s="7">
@@ -3473,7 +3483,7 @@
         <v>4804.9319999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>1</v>
       </c>
@@ -3481,7 +3491,7 @@
         <v>33</v>
       </c>
       <c r="C132" t="str">
-        <f>TRIM(LEFT(B132, FIND(" Average", B132) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Indonesia</v>
       </c>
       <c r="D132" s="7">
@@ -3494,7 +3504,7 @@
         <v>36557.801334000003</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>2</v>
       </c>
@@ -3502,7 +3512,7 @@
         <v>33</v>
       </c>
       <c r="C133" t="str">
-        <f>TRIM(LEFT(B133, FIND(" Average", B133) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Indonesia</v>
       </c>
       <c r="D133" s="7">
@@ -3515,7 +3525,7 @@
         <v>26707.019188000002</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>3</v>
       </c>
@@ -3523,7 +3533,7 @@
         <v>33</v>
       </c>
       <c r="C134" t="str">
-        <f>TRIM(LEFT(B134, FIND(" Average", B134) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Indonesia</v>
       </c>
       <c r="D134" s="7">
@@ -3536,7 +3546,7 @@
         <v>20919.022208000002</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>4</v>
       </c>
@@ -3544,7 +3554,7 @@
         <v>33</v>
       </c>
       <c r="C135" t="str">
-        <f>TRIM(LEFT(B135, FIND(" Average", B135) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Indonesia</v>
       </c>
       <c r="D135" s="7">
@@ -3557,7 +3567,7 @@
         <v>27876.833886</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>5</v>
       </c>
@@ -3565,7 +3575,7 @@
         <v>33</v>
       </c>
       <c r="C136" t="str">
-        <f>TRIM(LEFT(B136, FIND(" Average", B136) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Indonesia</v>
       </c>
       <c r="D136" s="7">
@@ -3578,7 +3588,7 @@
         <v>9296.9124000000011</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>1</v>
       </c>
@@ -3586,7 +3596,7 @@
         <v>34</v>
       </c>
       <c r="C137" t="str">
-        <f>TRIM(LEFT(B137, FIND(" Average", B137) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Ireland</v>
       </c>
       <c r="D137" s="7">
@@ -3599,7 +3609,7 @@
         <v>124316.68000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>2</v>
       </c>
@@ -3607,7 +3617,7 @@
         <v>34</v>
       </c>
       <c r="C138" t="str">
-        <f>TRIM(LEFT(B138, FIND(" Average", B138) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Ireland</v>
       </c>
       <c r="D138" s="7">
@@ -3620,7 +3630,7 @@
         <v>103301.48000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>3</v>
       </c>
@@ -3628,7 +3638,7 @@
         <v>34</v>
       </c>
       <c r="C139" t="str">
-        <f>TRIM(LEFT(B139, FIND(" Average", B139) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Ireland</v>
       </c>
       <c r="D139" s="7">
@@ -3641,7 +3651,7 @@
         <v>80912.88</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>4</v>
       </c>
@@ -3649,7 +3659,7 @@
         <v>34</v>
       </c>
       <c r="C140" t="str">
-        <f>TRIM(LEFT(B140, FIND(" Average", B140) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Ireland</v>
       </c>
       <c r="D140" s="7">
@@ -3662,7 +3672,7 @@
         <v>95647.5</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>5</v>
       </c>
@@ -3670,7 +3680,7 @@
         <v>34</v>
       </c>
       <c r="C141" t="str">
-        <f>TRIM(LEFT(B141, FIND(" Average", B141) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Ireland</v>
       </c>
       <c r="D141" s="7">
@@ -3683,7 +3693,7 @@
         <v>45296.04</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>1</v>
       </c>
@@ -3691,7 +3701,7 @@
         <v>35</v>
       </c>
       <c r="C142" t="str">
-        <f>TRIM(LEFT(B142, FIND(" Average", B142) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Israel</v>
       </c>
       <c r="D142" s="7">
@@ -3704,7 +3714,7 @@
         <v>94709.790000000008</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>2</v>
       </c>
@@ -3712,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="C143" t="str">
-        <f>TRIM(LEFT(B143, FIND(" Average", B143) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Israel</v>
       </c>
       <c r="D143" s="7">
@@ -3725,7 +3735,7 @@
         <v>74538.900000000009</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>3</v>
       </c>
@@ -3733,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="C144" t="str">
-        <f>TRIM(LEFT(B144, FIND(" Average", B144) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Israel</v>
       </c>
       <c r="D144" s="7">
@@ -3746,7 +3756,7 @@
         <v>58383.72</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>4</v>
       </c>
@@ -3754,7 +3764,7 @@
         <v>35</v>
       </c>
       <c r="C145" t="str">
-        <f>TRIM(LEFT(B145, FIND(" Average", B145) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Israel</v>
       </c>
       <c r="D145" s="7">
@@ -3767,7 +3777,7 @@
         <v>72412.11</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>5</v>
       </c>
@@ -3775,7 +3785,7 @@
         <v>35</v>
       </c>
       <c r="C146" t="str">
-        <f>TRIM(LEFT(B146, FIND(" Average", B146) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Israel</v>
       </c>
       <c r="D146" s="7">
@@ -3788,7 +3798,7 @@
         <v>29141.910000000003</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>1</v>
       </c>
@@ -3796,7 +3806,7 @@
         <v>36</v>
       </c>
       <c r="C147" t="str">
-        <f>TRIM(LEFT(B147, FIND(" Average", B147) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Italy</v>
       </c>
       <c r="D147" s="7">
@@ -3809,7 +3819,7 @@
         <v>93530.72</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>2</v>
       </c>
@@ -3817,7 +3827,7 @@
         <v>36</v>
       </c>
       <c r="C148" t="str">
-        <f>TRIM(LEFT(B148, FIND(" Average", B148) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Italy</v>
       </c>
       <c r="D148" s="7">
@@ -3830,7 +3840,7 @@
         <v>83337.040000000008</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -3838,7 +3848,7 @@
         <v>36</v>
       </c>
       <c r="C149" t="str">
-        <f>TRIM(LEFT(B149, FIND(" Average", B149) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Italy</v>
       </c>
       <c r="D149" s="7">
@@ -3851,7 +3861,7 @@
         <v>65274.65</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>4</v>
       </c>
@@ -3859,7 +3869,7 @@
         <v>36</v>
       </c>
       <c r="C150" t="str">
-        <f>TRIM(LEFT(B150, FIND(" Average", B150) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Italy</v>
       </c>
       <c r="D150" s="7">
@@ -3872,7 +3882,7 @@
         <v>73080.14</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>5</v>
       </c>
@@ -3880,7 +3890,7 @@
         <v>36</v>
       </c>
       <c r="C151" t="str">
-        <f>TRIM(LEFT(B151, FIND(" Average", B151) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Italy</v>
       </c>
       <c r="D151" s="7">
@@ -3893,7 +3903,7 @@
         <v>31819.280000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>1</v>
       </c>
@@ -3901,7 +3911,7 @@
         <v>37</v>
       </c>
       <c r="C152" t="str">
-        <f>TRIM(LEFT(B152, FIND(" Average", B152) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Japan</v>
       </c>
       <c r="D152" s="7">
@@ -3914,7 +3924,7 @@
         <v>86126.860800000009</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>2</v>
       </c>
@@ -3922,7 +3932,7 @@
         <v>37</v>
       </c>
       <c r="C153" t="str">
-        <f>TRIM(LEFT(B153, FIND(" Average", B153) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Japan</v>
       </c>
       <c r="D153" s="7">
@@ -3935,7 +3945,7 @@
         <v>62964.915200000003</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>3</v>
       </c>
@@ -3943,7 +3953,7 @@
         <v>37</v>
       </c>
       <c r="C154" t="str">
-        <f>TRIM(LEFT(B154, FIND(" Average", B154) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Japan</v>
       </c>
       <c r="D154" s="7">
@@ -3956,7 +3966,7 @@
         <v>49318.150400000006</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>4</v>
       </c>
@@ -3964,7 +3974,7 @@
         <v>37</v>
       </c>
       <c r="C155" t="str">
-        <f>TRIM(LEFT(B155, FIND(" Average", B155) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Japan</v>
       </c>
       <c r="D155" s="7">
@@ -3977,7 +3987,7 @@
         <v>57951.385600000001</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>5</v>
       </c>
@@ -3985,7 +3995,7 @@
         <v>37</v>
       </c>
       <c r="C156" t="str">
-        <f>TRIM(LEFT(B156, FIND(" Average", B156) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Japan</v>
       </c>
       <c r="D156" s="7">
@@ -3998,7 +4008,7 @@
         <v>23583.366400000003</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>1</v>
       </c>
@@ -4006,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="C157" t="str">
-        <f>TRIM(LEFT(B157, FIND(" Average", B157) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Kazakhstan</v>
       </c>
       <c r="D157" s="7">
@@ -4019,7 +4029,7 @@
         <v>30818.337100000001</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>2</v>
       </c>
@@ -4027,7 +4037,7 @@
         <v>38</v>
       </c>
       <c r="C158" t="str">
-        <f>TRIM(LEFT(B158, FIND(" Average", B158) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Kazakhstan</v>
       </c>
       <c r="D158" s="7">
@@ -4040,7 +4050,7 @@
         <v>23430.815299999998</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>3</v>
       </c>
@@ -4048,7 +4058,7 @@
         <v>38</v>
       </c>
       <c r="C159" t="str">
-        <f>TRIM(LEFT(B159, FIND(" Average", B159) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Kazakhstan</v>
       </c>
       <c r="D159" s="7">
@@ -4061,7 +4071,7 @@
         <v>18352.817800000001</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>4</v>
       </c>
@@ -4069,7 +4079,7 @@
         <v>38</v>
       </c>
       <c r="C160" t="str">
-        <f>TRIM(LEFT(B160, FIND(" Average", B160) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Kazakhstan</v>
       </c>
       <c r="D160" s="7">
@@ -4082,7 +4092,7 @@
         <v>21252.3105</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>5</v>
       </c>
@@ -4090,7 +4100,7 @@
         <v>38</v>
       </c>
       <c r="C161" t="str">
-        <f>TRIM(LEFT(B161, FIND(" Average", B161) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Kazakhstan</v>
       </c>
       <c r="D161" s="7">
@@ -4103,7 +4113,7 @@
         <v>10296.4997</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>1</v>
       </c>
@@ -4111,7 +4121,7 @@
         <v>39</v>
       </c>
       <c r="C162" t="str">
-        <f>TRIM(LEFT(B162, FIND(" Average", B162) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Luxembourg</v>
       </c>
       <c r="D162" s="7">
@@ -4124,7 +4134,7 @@
         <v>164134.38</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>2</v>
       </c>
@@ -4132,7 +4142,7 @@
         <v>39</v>
       </c>
       <c r="C163" t="str">
-        <f>TRIM(LEFT(B163, FIND(" Average", B163) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Luxembourg</v>
       </c>
       <c r="D163" s="7">
@@ -4145,7 +4155,7 @@
         <v>131129.18000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>3</v>
       </c>
@@ -4153,7 +4163,7 @@
         <v>39</v>
       </c>
       <c r="C164" t="str">
-        <f>TRIM(LEFT(B164, FIND(" Average", B164) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Luxembourg</v>
       </c>
       <c r="D164" s="7">
@@ -4166,7 +4176,7 @@
         <v>102709.61</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>4</v>
       </c>
@@ -4174,7 +4184,7 @@
         <v>39</v>
       </c>
       <c r="C165" t="str">
-        <f>TRIM(LEFT(B165, FIND(" Average", B165) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Luxembourg</v>
       </c>
       <c r="D165" s="7">
@@ -4187,7 +4197,7 @@
         <v>127670.61000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>5</v>
       </c>
@@ -4195,7 +4205,7 @@
         <v>39</v>
       </c>
       <c r="C166" t="str">
-        <f>TRIM(LEFT(B166, FIND(" Average", B166) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Luxembourg</v>
       </c>
       <c r="D166" s="7">
@@ -4208,7 +4218,7 @@
         <v>51772.820000000007</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>1</v>
       </c>
@@ -4216,7 +4226,7 @@
         <v>40</v>
       </c>
       <c r="C167" t="str">
-        <f>TRIM(LEFT(B167, FIND(" Average", B167) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Malaysia</v>
       </c>
       <c r="D167" s="7">
@@ -4229,7 +4239,7 @@
         <v>42569.576000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>2</v>
       </c>
@@ -4237,7 +4247,7 @@
         <v>40</v>
       </c>
       <c r="C168" t="str">
-        <f>TRIM(LEFT(B168, FIND(" Average", B168) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Malaysia</v>
       </c>
       <c r="D168" s="7">
@@ -4250,7 +4260,7 @@
         <v>28596.915199999999</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>3</v>
       </c>
@@ -4258,7 +4268,7 @@
         <v>40</v>
       </c>
       <c r="C169" t="str">
-        <f>TRIM(LEFT(B169, FIND(" Average", B169) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Malaysia</v>
       </c>
       <c r="D169" s="7">
@@ -4271,7 +4281,7 @@
         <v>22399.1152</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>4</v>
       </c>
@@ -4279,7 +4289,7 @@
         <v>40</v>
       </c>
       <c r="C170" t="str">
-        <f>TRIM(LEFT(B170, FIND(" Average", B170) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Malaysia</v>
       </c>
       <c r="D170" s="7">
@@ -4292,7 +4302,7 @@
         <v>26503.814399999999</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>5</v>
       </c>
@@ -4300,7 +4310,7 @@
         <v>40</v>
       </c>
       <c r="C171" t="str">
-        <f>TRIM(LEFT(B171, FIND(" Average", B171) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Malaysia</v>
       </c>
       <c r="D171" s="7">
@@ -4313,7 +4323,7 @@
         <v>9979.6815999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>1</v>
       </c>
@@ -4321,7 +4331,7 @@
         <v>41</v>
       </c>
       <c r="C172" t="str">
-        <f>TRIM(LEFT(B172, FIND(" Average", B172) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Malta</v>
       </c>
       <c r="D172" s="7">
@@ -4334,7 +4344,7 @@
         <v>77119.680000000008</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>2</v>
       </c>
@@ -4342,7 +4352,7 @@
         <v>41</v>
       </c>
       <c r="C173" t="str">
-        <f>TRIM(LEFT(B173, FIND(" Average", B173) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Malta</v>
       </c>
       <c r="D173" s="7">
@@ -4355,7 +4365,7 @@
         <v>55087.51</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>3</v>
       </c>
@@ -4363,7 +4373,7 @@
         <v>41</v>
       </c>
       <c r="C174" t="str">
-        <f>TRIM(LEFT(B174, FIND(" Average", B174) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Malta</v>
       </c>
       <c r="D174" s="7">
@@ -4376,7 +4386,7 @@
         <v>43147.65</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>4</v>
       </c>
@@ -4384,7 +4394,7 @@
         <v>41</v>
       </c>
       <c r="C175" t="str">
-        <f>TRIM(LEFT(B175, FIND(" Average", B175) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Malta</v>
       </c>
       <c r="D175" s="7">
@@ -4397,7 +4407,7 @@
         <v>54094.520000000004</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>5</v>
       </c>
@@ -4405,7 +4415,7 @@
         <v>41</v>
       </c>
       <c r="C176" t="str">
-        <f>TRIM(LEFT(B176, FIND(" Average", B176) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Malta</v>
       </c>
       <c r="D176" s="7">
@@ -4418,7 +4428,7 @@
         <v>19989.510000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>1</v>
       </c>
@@ -4426,7 +4436,7 @@
         <v>42</v>
       </c>
       <c r="C177" t="str">
-        <f>TRIM(LEFT(B177, FIND(" Average", B177) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Mexico</v>
       </c>
       <c r="D177" s="7">
@@ -4439,7 +4449,7 @@
         <v>49762.080000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>2</v>
       </c>
@@ -4447,7 +4457,7 @@
         <v>42</v>
       </c>
       <c r="C178" t="str">
-        <f>TRIM(LEFT(B178, FIND(" Average", B178) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Mexico</v>
       </c>
       <c r="D178" s="7">
@@ -4460,7 +4470,7 @@
         <v>28660.559999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>3</v>
       </c>
@@ -4468,7 +4478,7 @@
         <v>42</v>
       </c>
       <c r="C179" t="str">
-        <f>TRIM(LEFT(B179, FIND(" Average", B179) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Mexico</v>
       </c>
       <c r="D179" s="7">
@@ -4481,7 +4491,7 @@
         <v>22448.94</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>4</v>
       </c>
@@ -4489,7 +4499,7 @@
         <v>42</v>
       </c>
       <c r="C180" t="str">
-        <f>TRIM(LEFT(B180, FIND(" Average", B180) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Mexico</v>
       </c>
       <c r="D180" s="7">
@@ -4502,7 +4512,7 @@
         <v>27192.36</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>5</v>
       </c>
@@ -4510,7 +4520,7 @@
         <v>42</v>
       </c>
       <c r="C181" t="str">
-        <f>TRIM(LEFT(B181, FIND(" Average", B181) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Mexico</v>
       </c>
       <c r="D181" s="7">
@@ -4523,7 +4533,7 @@
         <v>9048.3599999999988</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>1</v>
       </c>
@@ -4531,7 +4541,7 @@
         <v>43</v>
       </c>
       <c r="C182" t="str">
-        <f>TRIM(LEFT(B182, FIND(" Average", B182) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Morocco</v>
       </c>
       <c r="D182" s="7">
@@ -4544,7 +4554,7 @@
         <v>36527.1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>2</v>
       </c>
@@ -4552,7 +4562,7 @@
         <v>43</v>
       </c>
       <c r="C183" t="str">
-        <f>TRIM(LEFT(B183, FIND(" Average", B183) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Morocco</v>
       </c>
       <c r="D183" s="7">
@@ -4565,7 +4575,7 @@
         <v>24075</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>3</v>
       </c>
@@ -4573,7 +4583,7 @@
         <v>43</v>
       </c>
       <c r="C184" t="str">
-        <f>TRIM(LEFT(B184, FIND(" Average", B184) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Morocco</v>
       </c>
       <c r="D184" s="7">
@@ -4586,7 +4596,7 @@
         <v>18857.2</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>4</v>
       </c>
@@ -4594,7 +4604,7 @@
         <v>43</v>
       </c>
       <c r="C185" t="str">
-        <f>TRIM(LEFT(B185, FIND(" Average", B185) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Morocco</v>
       </c>
       <c r="D185" s="7">
@@ -4607,7 +4617,7 @@
         <v>22723.5</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>5</v>
       </c>
@@ -4615,7 +4625,7 @@
         <v>43</v>
       </c>
       <c r="C186" t="str">
-        <f>TRIM(LEFT(B186, FIND(" Average", B186) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Morocco</v>
       </c>
       <c r="D186" s="7">
@@ -4628,7 +4638,7 @@
         <v>10361.200000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>1</v>
       </c>
@@ -4636,7 +4646,7 @@
         <v>44</v>
       </c>
       <c r="C187" t="str">
-        <f>TRIM(LEFT(B187, FIND(" Average", B187) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Netherlands</v>
       </c>
       <c r="D187" s="7">
@@ -4649,7 +4659,7 @@
         <v>118048.09000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>2</v>
       </c>
@@ -4657,7 +4667,7 @@
         <v>44</v>
       </c>
       <c r="C188" t="str">
-        <f>TRIM(LEFT(B188, FIND(" Average", B188) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Netherlands</v>
       </c>
       <c r="D188" s="7">
@@ -4670,7 +4680,7 @@
         <v>105525.08</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>3</v>
       </c>
@@ -4678,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="C189" t="str">
-        <f>TRIM(LEFT(B189, FIND(" Average", B189) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Netherlands</v>
       </c>
       <c r="D189" s="7">
@@ -4691,7 +4701,7 @@
         <v>82653.61</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>4</v>
       </c>
@@ -4699,7 +4709,7 @@
         <v>44</v>
       </c>
       <c r="C190" t="str">
-        <f>TRIM(LEFT(B190, FIND(" Average", B190) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Netherlands</v>
       </c>
       <c r="D190" s="7">
@@ -4712,7 +4722,7 @@
         <v>100669.13</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>5</v>
       </c>
@@ -4720,7 +4730,7 @@
         <v>44</v>
       </c>
       <c r="C191" t="str">
-        <f>TRIM(LEFT(B191, FIND(" Average", B191) - 1))</f>
+        <f t="shared" si="2"/>
         <v>Netherlands</v>
       </c>
       <c r="D191" s="7">
@@ -4733,7 +4743,7 @@
         <v>45766.920000000006</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>1</v>
       </c>
@@ -4741,7 +4751,7 @@
         <v>45</v>
       </c>
       <c r="C192" t="str">
-        <f>TRIM(LEFT(B192, FIND(" Average", B192) - 1))</f>
+        <f t="shared" si="2"/>
         <v>New Zealand</v>
       </c>
       <c r="D192" s="7">
@@ -4754,7 +4764,7 @@
         <v>112771.31</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>2</v>
       </c>
@@ -4762,7 +4772,7 @@
         <v>45</v>
       </c>
       <c r="C193" t="str">
-        <f>TRIM(LEFT(B193, FIND(" Average", B193) - 1))</f>
+        <f t="shared" si="2"/>
         <v>New Zealand</v>
       </c>
       <c r="D193" s="7">
@@ -4775,7 +4785,7 @@
         <v>91213.91</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>3</v>
       </c>
@@ -4783,7 +4793,7 @@
         <v>45</v>
       </c>
       <c r="C194" t="str">
-        <f>TRIM(LEFT(B194, FIND(" Average", B194) - 1))</f>
+        <f t="shared" ref="C194:C257" si="3">TRIM(LEFT(B194, FIND(" Average", B194) - 1))</f>
         <v>New Zealand</v>
       </c>
       <c r="D194" s="7">
@@ -4796,7 +4806,7 @@
         <v>71445.03</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>4</v>
       </c>
@@ -4804,7 +4814,7 @@
         <v>45</v>
       </c>
       <c r="C195" t="str">
-        <f>TRIM(LEFT(B195, FIND(" Average", B195) - 1))</f>
+        <f t="shared" si="3"/>
         <v>New Zealand</v>
       </c>
       <c r="D195" s="7">
@@ -4817,7 +4827,7 @@
         <v>84047.63</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>5</v>
       </c>
@@ -4825,7 +4835,7 @@
         <v>45</v>
       </c>
       <c r="C196" t="str">
-        <f>TRIM(LEFT(B196, FIND(" Average", B196) - 1))</f>
+        <f t="shared" si="3"/>
         <v>New Zealand</v>
       </c>
       <c r="D196" s="7">
@@ -4838,7 +4848,7 @@
         <v>36692.720000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>1</v>
       </c>
@@ -4846,7 +4856,7 @@
         <v>46</v>
       </c>
       <c r="C197" t="str">
-        <f>TRIM(LEFT(B197, FIND(" Average", B197) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Norway</v>
       </c>
       <c r="D197" s="7">
@@ -4859,7 +4869,7 @@
         <v>119498.88499999999</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>2</v>
       </c>
@@ -4867,7 +4877,7 @@
         <v>46</v>
       </c>
       <c r="C198" t="str">
-        <f>TRIM(LEFT(B198, FIND(" Average", B198) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Norway</v>
       </c>
       <c r="D198" s="7">
@@ -4880,7 +4890,7 @@
         <v>99973.154999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>3</v>
       </c>
@@ -4888,7 +4898,7 @@
         <v>46</v>
       </c>
       <c r="C199" t="str">
-        <f>TRIM(LEFT(B199, FIND(" Average", B199) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Norway</v>
       </c>
       <c r="D199" s="7">
@@ -4901,7 +4911,7 @@
         <v>78305.460000000006</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>4</v>
       </c>
@@ -4909,7 +4919,7 @@
         <v>46</v>
       </c>
       <c r="C200" t="str">
-        <f>TRIM(LEFT(B200, FIND(" Average", B200) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Norway</v>
       </c>
       <c r="D200" s="7">
@@ -4922,7 +4932,7 @@
         <v>90996.32</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>5</v>
       </c>
@@ -4930,7 +4940,7 @@
         <v>46</v>
       </c>
       <c r="C201" t="str">
-        <f>TRIM(LEFT(B201, FIND(" Average", B201) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Norway</v>
       </c>
       <c r="D201" s="7">
@@ -4943,7 +4953,7 @@
         <v>46296.824999999997</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>1</v>
       </c>
@@ -4951,7 +4961,7 @@
         <v>47</v>
       </c>
       <c r="C202" t="str">
-        <f>TRIM(LEFT(B202, FIND(" Average", B202) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Pakistan</v>
       </c>
       <c r="D202" s="7">
@@ -4964,7 +4974,7 @@
         <v>15713.247599999999</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>2</v>
       </c>
@@ -4972,7 +4982,7 @@
         <v>47</v>
       </c>
       <c r="C203" t="str">
-        <f>TRIM(LEFT(B203, FIND(" Average", B203) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Pakistan</v>
       </c>
       <c r="D203" s="7">
@@ -4985,7 +4995,7 @@
         <v>10319.212799999999</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>3</v>
       </c>
@@ -4993,7 +5003,7 @@
         <v>47</v>
       </c>
       <c r="C204" t="str">
-        <f>TRIM(LEFT(B204, FIND(" Average", B204) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Pakistan</v>
       </c>
       <c r="D204" s="7">
@@ -5006,7 +5016,7 @@
         <v>8082.8495999999996</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>4</v>
       </c>
@@ -5014,7 +5024,7 @@
         <v>47</v>
       </c>
       <c r="C205" t="str">
-        <f>TRIM(LEFT(B205, FIND(" Average", B205) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Pakistan</v>
       </c>
       <c r="D205" s="7">
@@ -5027,7 +5037,7 @@
         <v>8825.2955999999995</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>5</v>
       </c>
@@ -5035,7 +5045,7 @@
         <v>47</v>
       </c>
       <c r="C206" t="str">
-        <f>TRIM(LEFT(B206, FIND(" Average", B206) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Pakistan</v>
       </c>
       <c r="D206" s="7">
@@ -5048,7 +5058,7 @@
         <v>2856.8735999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>1</v>
       </c>
@@ -5056,7 +5066,7 @@
         <v>48</v>
       </c>
       <c r="C207" t="str">
-        <f>TRIM(LEFT(B207, FIND(" Average", B207) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Panama</v>
       </c>
       <c r="D207" s="7">
@@ -5069,7 +5079,7 @@
         <v>70153</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>2</v>
       </c>
@@ -5077,7 +5087,7 @@
         <v>48</v>
       </c>
       <c r="C208" t="str">
-        <f>TRIM(LEFT(B208, FIND(" Average", B208) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Panama</v>
       </c>
       <c r="D208" s="7">
@@ -5090,7 +5100,7 @@
         <v>45348</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>3</v>
       </c>
@@ -5098,7 +5108,7 @@
         <v>48</v>
       </c>
       <c r="C209" t="str">
-        <f>TRIM(LEFT(B209, FIND(" Average", B209) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Panama</v>
       </c>
       <c r="D209" s="7">
@@ -5111,7 +5121,7 @@
         <v>35520</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>4</v>
       </c>
@@ -5119,7 +5129,7 @@
         <v>48</v>
       </c>
       <c r="C210" t="str">
-        <f>TRIM(LEFT(B210, FIND(" Average", B210) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Panama</v>
       </c>
       <c r="D210" s="7">
@@ -5132,7 +5142,7 @@
         <v>40944</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>5</v>
       </c>
@@ -5140,7 +5150,7 @@
         <v>48</v>
       </c>
       <c r="C211" t="str">
-        <f>TRIM(LEFT(B211, FIND(" Average", B211) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Panama</v>
       </c>
       <c r="D211" s="7">
@@ -5153,7 +5163,7 @@
         <v>14912</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>1</v>
       </c>
@@ -5161,7 +5171,7 @@
         <v>49</v>
       </c>
       <c r="C212" t="str">
-        <f>TRIM(LEFT(B212, FIND(" Average", B212) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Peru</v>
       </c>
       <c r="D212" s="7">
@@ -5174,7 +5184,7 @@
         <v>35944.020000000004</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>2</v>
       </c>
@@ -5182,7 +5192,7 @@
         <v>49</v>
       </c>
       <c r="C213" t="str">
-        <f>TRIM(LEFT(B213, FIND(" Average", B213) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Peru</v>
       </c>
       <c r="D213" s="7">
@@ -5195,7 +5205,7 @@
         <v>20851.830000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>3</v>
       </c>
@@ -5203,7 +5213,7 @@
         <v>49</v>
       </c>
       <c r="C214" t="str">
-        <f>TRIM(LEFT(B214, FIND(" Average", B214) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Peru</v>
       </c>
       <c r="D214" s="7">
@@ -5216,7 +5226,7 @@
         <v>16332.570000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>4</v>
       </c>
@@ -5224,7 +5234,7 @@
         <v>49</v>
       </c>
       <c r="C215" t="str">
-        <f>TRIM(LEFT(B215, FIND(" Average", B215) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Peru</v>
       </c>
       <c r="D215" s="7">
@@ -5237,7 +5247,7 @@
         <v>19812.600000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>5</v>
       </c>
@@ -5245,7 +5255,7 @@
         <v>49</v>
       </c>
       <c r="C216" t="str">
-        <f>TRIM(LEFT(B216, FIND(" Average", B216) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Peru</v>
       </c>
       <c r="D216" s="7">
@@ -5258,7 +5268,7 @@
         <v>7331.5800000000008</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>1</v>
       </c>
@@ -5266,7 +5276,7 @@
         <v>50</v>
       </c>
       <c r="C217" t="str">
-        <f>TRIM(LEFT(B217, FIND(" Average", B217) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Philippines</v>
       </c>
       <c r="D217" s="7">
@@ -5279,7 +5289,7 @@
         <v>21147.745000000003</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>2</v>
       </c>
@@ -5287,7 +5297,7 @@
         <v>50</v>
       </c>
       <c r="C218" t="str">
-        <f>TRIM(LEFT(B218, FIND(" Average", B218) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Philippines</v>
       </c>
       <c r="D218" s="7">
@@ -5300,7 +5310,7 @@
         <v>13367.321000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>3</v>
       </c>
@@ -5308,7 +5318,7 @@
         <v>50</v>
       </c>
       <c r="C219" t="str">
-        <f>TRIM(LEFT(B219, FIND(" Average", B219) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Philippines</v>
       </c>
       <c r="D219" s="7">
@@ -5321,7 +5331,7 @@
         <v>10470.283000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>4</v>
       </c>
@@ -5329,7 +5339,7 @@
         <v>50</v>
       </c>
       <c r="C220" t="str">
-        <f>TRIM(LEFT(B220, FIND(" Average", B220) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Philippines</v>
       </c>
       <c r="D220" s="7">
@@ -5342,7 +5352,7 @@
         <v>13314.162</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>5</v>
       </c>
@@ -5350,7 +5360,7 @@
         <v>50</v>
       </c>
       <c r="C221" t="str">
-        <f>TRIM(LEFT(B221, FIND(" Average", B221) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Philippines</v>
       </c>
       <c r="D221" s="7">
@@ -5363,7 +5373,7 @@
         <v>5185.6970000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>1</v>
       </c>
@@ -5371,7 +5381,7 @@
         <v>51</v>
       </c>
       <c r="C222" t="str">
-        <f>TRIM(LEFT(B222, FIND(" Average", B222) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Poland</v>
       </c>
       <c r="D222" s="7">
@@ -5384,7 +5394,7 @@
         <v>68491.540000000008</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>2</v>
       </c>
@@ -5392,7 +5402,7 @@
         <v>51</v>
       </c>
       <c r="C223" t="str">
-        <f>TRIM(LEFT(B223, FIND(" Average", B223) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Poland</v>
       </c>
       <c r="D223" s="7">
@@ -5405,7 +5415,7 @@
         <v>47375.9</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>3</v>
       </c>
@@ -5413,7 +5423,7 @@
         <v>51</v>
       </c>
       <c r="C224" t="str">
-        <f>TRIM(LEFT(B224, FIND(" Average", B224) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Poland</v>
       </c>
       <c r="D224" s="7">
@@ -5426,7 +5436,7 @@
         <v>37107.980000000003</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>4</v>
       </c>
@@ -5434,7 +5444,7 @@
         <v>51</v>
       </c>
       <c r="C225" t="str">
-        <f>TRIM(LEFT(B225, FIND(" Average", B225) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Poland</v>
       </c>
       <c r="D225" s="7">
@@ -5447,7 +5457,7 @@
         <v>43132.44</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>5</v>
       </c>
@@ -5455,7 +5465,7 @@
         <v>51</v>
       </c>
       <c r="C226" t="str">
-        <f>TRIM(LEFT(B226, FIND(" Average", B226) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Poland</v>
       </c>
       <c r="D226" s="7">
@@ -5468,7 +5478,7 @@
         <v>18577</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>1</v>
       </c>
@@ -5476,7 +5486,7 @@
         <v>52</v>
       </c>
       <c r="C227" t="str">
-        <f>TRIM(LEFT(B227, FIND(" Average", B227) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Portugal</v>
       </c>
       <c r="D227" s="7">
@@ -5489,7 +5499,7 @@
         <v>74971.290000000008</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>2</v>
       </c>
@@ -5497,7 +5507,7 @@
         <v>52</v>
       </c>
       <c r="C228" t="str">
-        <f>TRIM(LEFT(B228, FIND(" Average", B228) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Portugal</v>
       </c>
       <c r="D228" s="7">
@@ -5510,7 +5520,7 @@
         <v>57919.33</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>3</v>
       </c>
@@ -5518,7 +5528,7 @@
         <v>52</v>
       </c>
       <c r="C229" t="str">
-        <f>TRIM(LEFT(B229, FIND(" Average", B229) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Portugal</v>
       </c>
       <c r="D229" s="7">
@@ -5531,7 +5541,7 @@
         <v>45366.890000000007</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>4</v>
       </c>
@@ -5539,7 +5549,7 @@
         <v>52</v>
       </c>
       <c r="C230" t="str">
-        <f>TRIM(LEFT(B230, FIND(" Average", B230) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Portugal</v>
       </c>
       <c r="D230" s="7">
@@ -5552,7 +5562,7 @@
         <v>53738.090000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>5</v>
       </c>
@@ -5560,7 +5570,7 @@
         <v>52</v>
       </c>
       <c r="C231" t="str">
-        <f>TRIM(LEFT(B231, FIND(" Average", B231) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Portugal</v>
       </c>
       <c r="D231" s="7">
@@ -5573,7 +5583,7 @@
         <v>23446.99</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>1</v>
       </c>
@@ -5581,7 +5591,7 @@
         <v>53</v>
       </c>
       <c r="C232" t="str">
-        <f>TRIM(LEFT(B232, FIND(" Average", B232) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Romania</v>
       </c>
       <c r="D232" s="7">
@@ -5594,7 +5604,7 @@
         <v>42518.080000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>2</v>
       </c>
@@ -5602,7 +5612,7 @@
         <v>53</v>
       </c>
       <c r="C233" t="str">
-        <f>TRIM(LEFT(B233, FIND(" Average", B233) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Romania</v>
       </c>
       <c r="D233" s="7">
@@ -5615,7 +5625,7 @@
         <v>30049.58</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>3</v>
       </c>
@@ -5623,7 +5633,7 @@
         <v>53</v>
       </c>
       <c r="C234" t="str">
-        <f>TRIM(LEFT(B234, FIND(" Average", B234) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Romania</v>
       </c>
       <c r="D234" s="7">
@@ -5636,7 +5646,7 @@
         <v>23536.920000000002</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>4</v>
       </c>
@@ -5644,7 +5654,7 @@
         <v>53</v>
       </c>
       <c r="C235" t="str">
-        <f>TRIM(LEFT(B235, FIND(" Average", B235) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Romania</v>
       </c>
       <c r="D235" s="7">
@@ -5657,7 +5667,7 @@
         <v>30785.040000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>5</v>
       </c>
@@ -5665,7 +5675,7 @@
         <v>53</v>
       </c>
       <c r="C236" t="str">
-        <f>TRIM(LEFT(B236, FIND(" Average", B236) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Romania</v>
       </c>
       <c r="D236" s="7">
@@ -5678,7 +5688,7 @@
         <v>13082.3</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>1</v>
       </c>
@@ -5686,7 +5696,7 @@
         <v>54</v>
       </c>
       <c r="C237" t="str">
-        <f>TRIM(LEFT(B237, FIND(" Average", B237) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Russian Federation</v>
       </c>
       <c r="D237" s="7">
@@ -5699,7 +5709,7 @@
         <v>28059.558999999997</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>2</v>
       </c>
@@ -5707,7 +5717,7 @@
         <v>54</v>
       </c>
       <c r="C238" t="str">
-        <f>TRIM(LEFT(B238, FIND(" Average", B238) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Russian Federation</v>
       </c>
       <c r="D238" s="7">
@@ -5720,7 +5730,7 @@
         <v>20455.423999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>3</v>
       </c>
@@ -5728,7 +5738,7 @@
         <v>54</v>
       </c>
       <c r="C239" t="str">
-        <f>TRIM(LEFT(B239, FIND(" Average", B239) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Russian Federation</v>
       </c>
       <c r="D239" s="7">
@@ -5741,7 +5751,7 @@
         <v>16022.248</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>4</v>
       </c>
@@ -5749,7 +5759,7 @@
         <v>54</v>
       </c>
       <c r="C240" t="str">
-        <f>TRIM(LEFT(B240, FIND(" Average", B240) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Russian Federation</v>
       </c>
       <c r="D240" s="7">
@@ -5762,7 +5772,7 @@
         <v>18438.309999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>5</v>
       </c>
@@ -5770,7 +5780,7 @@
         <v>54</v>
       </c>
       <c r="C241" t="str">
-        <f>TRIM(LEFT(B241, FIND(" Average", B241) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Russian Federation</v>
       </c>
       <c r="D241" s="7">
@@ -5783,7 +5793,7 @@
         <v>6927.7889999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>1</v>
       </c>
@@ -5791,7 +5801,7 @@
         <v>55</v>
       </c>
       <c r="C242" t="str">
-        <f>TRIM(LEFT(B242, FIND(" Average", B242) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Saudi Arabia</v>
       </c>
       <c r="D242" s="7">
@@ -5804,7 +5814,7 @@
         <v>91255.950000000012</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>2</v>
       </c>
@@ -5812,7 +5822,7 @@
         <v>55</v>
       </c>
       <c r="C243" t="str">
-        <f>TRIM(LEFT(B243, FIND(" Average", B243) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Saudi Arabia</v>
       </c>
       <c r="D243" s="7">
@@ -5825,7 +5835,7 @@
         <v>63821.250000000007</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>3</v>
       </c>
@@ -5833,7 +5843,7 @@
         <v>55</v>
       </c>
       <c r="C244" t="str">
-        <f>TRIM(LEFT(B244, FIND(" Average", B244) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Saudi Arabia</v>
       </c>
       <c r="D244" s="7">
@@ -5846,7 +5856,7 @@
         <v>49989.420000000006</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>4</v>
       </c>
@@ -5854,7 +5864,7 @@
         <v>55</v>
       </c>
       <c r="C245" t="str">
-        <f>TRIM(LEFT(B245, FIND(" Average", B245) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Saudi Arabia</v>
       </c>
       <c r="D245" s="7">
@@ -5867,7 +5877,7 @@
         <v>57113.100000000006</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>5</v>
       </c>
@@ -5875,7 +5885,7 @@
         <v>55</v>
       </c>
       <c r="C246" t="str">
-        <f>TRIM(LEFT(B246, FIND(" Average", B246) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Saudi Arabia</v>
       </c>
       <c r="D246" s="7">
@@ -5888,7 +5898,7 @@
         <v>24039.72</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>1</v>
       </c>
@@ -5896,7 +5906,7 @@
         <v>56</v>
       </c>
       <c r="C247" t="str">
-        <f>TRIM(LEFT(B247, FIND(" Average", B247) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Singapore</v>
       </c>
       <c r="D247" s="7">
@@ -5909,7 +5919,7 @@
         <v>114652.64</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>2</v>
       </c>
@@ -5917,7 +5927,7 @@
         <v>56</v>
       </c>
       <c r="C248" t="str">
-        <f>TRIM(LEFT(B248, FIND(" Average", B248) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Singapore</v>
       </c>
       <c r="D248" s="7">
@@ -5930,7 +5940,7 @@
         <v>85811.88</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>3</v>
       </c>
@@ -5938,7 +5948,7 @@
         <v>56</v>
       </c>
       <c r="C249" t="str">
-        <f>TRIM(LEFT(B249, FIND(" Average", B249) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Singapore</v>
       </c>
       <c r="D249" s="7">
@@ -5951,7 +5961,7 @@
         <v>67213.460000000006</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>4</v>
       </c>
@@ -5959,7 +5969,7 @@
         <v>56</v>
       </c>
       <c r="C250" t="str">
-        <f>TRIM(LEFT(B250, FIND(" Average", B250) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Singapore</v>
       </c>
       <c r="D250" s="7">
@@ -5972,7 +5982,7 @@
         <v>81787.759999999995</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>5</v>
       </c>
@@ -5980,7 +5990,7 @@
         <v>56</v>
       </c>
       <c r="C251" t="str">
-        <f>TRIM(LEFT(B251, FIND(" Average", B251) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Singapore</v>
       </c>
       <c r="D251" s="7">
@@ -5993,7 +6003,7 @@
         <v>30364.42</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>1</v>
       </c>
@@ -6001,7 +6011,7 @@
         <v>57</v>
       </c>
       <c r="C252" t="str">
-        <f>TRIM(LEFT(B252, FIND(" Average", B252) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Slovakia</v>
       </c>
       <c r="D252" s="7">
@@ -6014,7 +6024,7 @@
         <v>55033.01</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>2</v>
       </c>
@@ -6022,7 +6032,7 @@
         <v>57</v>
       </c>
       <c r="C253" t="str">
-        <f>TRIM(LEFT(B253, FIND(" Average", B253) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Slovakia</v>
       </c>
       <c r="D253" s="7">
@@ -6035,7 +6045,7 @@
         <v>45467.170000000006</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>3</v>
       </c>
@@ -6043,7 +6053,7 @@
         <v>57</v>
       </c>
       <c r="C254" t="str">
-        <f>TRIM(LEFT(B254, FIND(" Average", B254) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Slovakia</v>
       </c>
       <c r="D254" s="7">
@@ -6056,7 +6066,7 @@
         <v>35612.480000000003</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>4</v>
       </c>
@@ -6064,7 +6074,7 @@
         <v>57</v>
       </c>
       <c r="C255" t="str">
-        <f>TRIM(LEFT(B255, FIND(" Average", B255) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Slovakia</v>
       </c>
       <c r="D255" s="7">
@@ -6077,7 +6087,7 @@
         <v>38616.520000000004</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>5</v>
       </c>
@@ -6085,7 +6095,7 @@
         <v>57</v>
       </c>
       <c r="C256" t="str">
-        <f>TRIM(LEFT(B256, FIND(" Average", B256) - 1))</f>
+        <f t="shared" si="3"/>
         <v>Slovakia</v>
       </c>
       <c r="D256" s="7">
@@ -6098,7 +6108,7 @@
         <v>17354.98</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>1</v>
       </c>
@@ -6106,7 +6116,7 @@
         <v>58</v>
       </c>
       <c r="C257" t="str">
-        <f>TRIM(LEFT(B257, FIND(" Average", B257) - 1))</f>
+        <f t="shared" si="3"/>
         <v>South Africa</v>
       </c>
       <c r="D257" s="7">
@@ -6119,7 +6129,7 @@
         <v>62692.866000000002</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>2</v>
       </c>
@@ -6127,7 +6137,7 @@
         <v>58</v>
       </c>
       <c r="C258" t="str">
-        <f>TRIM(LEFT(B258, FIND(" Average", B258) - 1))</f>
+        <f t="shared" ref="C258:C321" si="4">TRIM(LEFT(B258, FIND(" Average", B258) - 1))</f>
         <v>South Africa</v>
       </c>
       <c r="D258" s="7">
@@ -6140,7 +6150,7 @@
         <v>36169.307999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>3</v>
       </c>
@@ -6148,7 +6158,7 @@
         <v>58</v>
       </c>
       <c r="C259" t="str">
-        <f>TRIM(LEFT(B259, FIND(" Average", B259) - 1))</f>
+        <f t="shared" si="4"/>
         <v>South Africa</v>
       </c>
       <c r="D259" s="7">
@@ -6161,7 +6171,7 @@
         <v>28330.506000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>4</v>
       </c>
@@ -6169,7 +6179,7 @@
         <v>58</v>
       </c>
       <c r="C260" t="str">
-        <f>TRIM(LEFT(B260, FIND(" Average", B260) - 1))</f>
+        <f t="shared" si="4"/>
         <v>South Africa</v>
       </c>
       <c r="D260" s="7">
@@ -6182,7 +6192,7 @@
         <v>34207.65</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>5</v>
       </c>
@@ -6190,7 +6200,7 @@
         <v>58</v>
       </c>
       <c r="C261" t="str">
-        <f>TRIM(LEFT(B261, FIND(" Average", B261) - 1))</f>
+        <f t="shared" si="4"/>
         <v>South Africa</v>
       </c>
       <c r="D261" s="7">
@@ -6203,7 +6213,7 @@
         <v>11535.912</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>1</v>
       </c>
@@ -6211,7 +6221,7 @@
         <v>59</v>
       </c>
       <c r="C262" t="str">
-        <f>TRIM(LEFT(B262, FIND(" Average", B262) - 1))</f>
+        <f t="shared" si="4"/>
         <v>South Korea</v>
       </c>
       <c r="D262" s="7">
@@ -6224,7 +6234,7 @@
         <v>80470.267389999994</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>2</v>
       </c>
@@ -6232,7 +6242,7 @@
         <v>59</v>
       </c>
       <c r="C263" t="str">
-        <f>TRIM(LEFT(B263, FIND(" Average", B263) - 1))</f>
+        <f t="shared" si="4"/>
         <v>South Korea</v>
       </c>
       <c r="D263" s="7">
@@ -6245,7 +6255,7 @@
         <v>64804.834579999995</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>3</v>
       </c>
@@ -6253,7 +6263,7 @@
         <v>59</v>
       </c>
       <c r="C264" t="str">
-        <f>TRIM(LEFT(B264, FIND(" Average", B264) - 1))</f>
+        <f t="shared" si="4"/>
         <v>South Korea</v>
       </c>
       <c r="D264" s="7">
@@ -6266,7 +6276,7 @@
         <v>50759.723639999997</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>4</v>
       </c>
@@ -6274,7 +6284,7 @@
         <v>59</v>
       </c>
       <c r="C265" t="str">
-        <f>TRIM(LEFT(B265, FIND(" Average", B265) - 1))</f>
+        <f t="shared" si="4"/>
         <v>South Korea</v>
       </c>
       <c r="D265" s="7">
@@ -6287,7 +6297,7 @@
         <v>56464.897019999997</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>5</v>
       </c>
@@ -6295,7 +6305,7 @@
         <v>59</v>
       </c>
       <c r="C266" t="str">
-        <f>TRIM(LEFT(B266, FIND(" Average", B266) - 1))</f>
+        <f t="shared" si="4"/>
         <v>South Korea</v>
       </c>
       <c r="D266" s="7">
@@ -6308,7 +6318,7 @@
         <v>26022.5144</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>1</v>
       </c>
@@ -6316,7 +6326,7 @@
         <v>60</v>
       </c>
       <c r="C267" t="str">
-        <f>TRIM(LEFT(B267, FIND(" Average", B267) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Spain</v>
       </c>
       <c r="D267" s="7">
@@ -6329,7 +6339,7 @@
         <v>94451.77</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>2</v>
       </c>
@@ -6337,7 +6347,7 @@
         <v>60</v>
       </c>
       <c r="C268" t="str">
-        <f>TRIM(LEFT(B268, FIND(" Average", B268) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Spain</v>
       </c>
       <c r="D268" s="7">
@@ -6350,7 +6360,7 @@
         <v>72667.03</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>3</v>
       </c>
@@ -6358,7 +6368,7 @@
         <v>60</v>
       </c>
       <c r="C269" t="str">
-        <f>TRIM(LEFT(B269, FIND(" Average", B269) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Spain</v>
       </c>
       <c r="D269" s="7">
@@ -6371,7 +6381,7 @@
         <v>56917.62</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>4</v>
       </c>
@@ -6379,7 +6389,7 @@
         <v>60</v>
       </c>
       <c r="C270" t="str">
-        <f>TRIM(LEFT(B270, FIND(" Average", B270) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Spain</v>
       </c>
       <c r="D270" s="7">
@@ -6392,7 +6402,7 @@
         <v>70614.560000000012</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>5</v>
       </c>
@@ -6400,7 +6410,7 @@
         <v>60</v>
       </c>
       <c r="C271" t="str">
-        <f>TRIM(LEFT(B271, FIND(" Average", B271) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Spain</v>
       </c>
       <c r="D271" s="7">
@@ -6413,7 +6423,7 @@
         <v>29022.340000000004</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>1</v>
       </c>
@@ -6421,7 +6431,7 @@
         <v>61</v>
       </c>
       <c r="C272" t="str">
-        <f>TRIM(LEFT(B272, FIND(" Average", B272) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Sweden</v>
       </c>
       <c r="D272" s="7">
@@ -6434,7 +6444,7 @@
         <v>90624.648000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>1</v>
       </c>
@@ -6442,7 +6452,7 @@
         <v>61</v>
       </c>
       <c r="C273" t="str">
-        <f>TRIM(LEFT(B273, FIND(" Average", B273) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Sweden</v>
       </c>
       <c r="D273" s="7">
@@ -6455,7 +6465,7 @@
         <v>90624.648000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>2</v>
       </c>
@@ -6463,7 +6473,7 @@
         <v>61</v>
       </c>
       <c r="C274" t="str">
-        <f>TRIM(LEFT(B274, FIND(" Average", B274) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Sweden</v>
       </c>
       <c r="D274" s="7">
@@ -6476,7 +6486,7 @@
         <v>87731.233999999997</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>2</v>
       </c>
@@ -6484,7 +6494,7 @@
         <v>61</v>
       </c>
       <c r="C275" t="str">
-        <f>TRIM(LEFT(B275, FIND(" Average", B275) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Sweden</v>
       </c>
       <c r="D275" s="7">
@@ -6497,7 +6507,7 @@
         <v>87731.233999999997</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>3</v>
       </c>
@@ -6505,7 +6515,7 @@
         <v>61</v>
       </c>
       <c r="C276" t="str">
-        <f>TRIM(LEFT(B276, FIND(" Average", B276) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Sweden</v>
       </c>
       <c r="D276" s="7">
@@ -6518,7 +6528,7 @@
         <v>68716.820000000007</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>3</v>
       </c>
@@ -6526,7 +6536,7 @@
         <v>61</v>
       </c>
       <c r="C277" t="str">
-        <f>TRIM(LEFT(B277, FIND(" Average", B277) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Sweden</v>
       </c>
       <c r="D277" s="7">
@@ -6539,7 +6549,7 @@
         <v>68716.820000000007</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>4</v>
       </c>
@@ -6547,7 +6557,7 @@
         <v>61</v>
       </c>
       <c r="C278" t="str">
-        <f>TRIM(LEFT(B278, FIND(" Average", B278) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Sweden</v>
       </c>
       <c r="D278" s="7">
@@ -6560,7 +6570,7 @@
         <v>79170.466</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>4</v>
       </c>
@@ -6568,7 +6578,7 @@
         <v>61</v>
       </c>
       <c r="C279" t="str">
-        <f>TRIM(LEFT(B279, FIND(" Average", B279) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Sweden</v>
       </c>
       <c r="D279" s="7">
@@ -6581,7 +6591,7 @@
         <v>79170.466</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>5</v>
       </c>
@@ -6589,7 +6599,7 @@
         <v>61</v>
       </c>
       <c r="C280" t="str">
-        <f>TRIM(LEFT(B280, FIND(" Average", B280) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Sweden</v>
       </c>
       <c r="D280" s="7">
@@ -6602,7 +6612,7 @@
         <v>38929.442000000003</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>5</v>
       </c>
@@ -6610,7 +6620,7 @@
         <v>61</v>
       </c>
       <c r="C281" t="str">
-        <f>TRIM(LEFT(B281, FIND(" Average", B281) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Sweden</v>
       </c>
       <c r="D281" s="7">
@@ -6623,7 +6633,7 @@
         <v>38929.442000000003</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>1</v>
       </c>
@@ -6631,7 +6641,7 @@
         <v>62</v>
       </c>
       <c r="C282" t="str">
-        <f>TRIM(LEFT(B282, FIND(" Average", B282) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Switzerland</v>
       </c>
       <c r="D282" s="7">
@@ -6644,7 +6654,7 @@
         <v>187279.44</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>2</v>
       </c>
@@ -6652,7 +6662,7 @@
         <v>62</v>
       </c>
       <c r="C283" t="str">
-        <f>TRIM(LEFT(B283, FIND(" Average", B283) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Switzerland</v>
       </c>
       <c r="D283" s="7">
@@ -6665,7 +6675,7 @@
         <v>159027.73000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>3</v>
       </c>
@@ -6673,7 +6683,7 @@
         <v>62</v>
       </c>
       <c r="C284" t="str">
-        <f>TRIM(LEFT(B284, FIND(" Average", B284) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Switzerland</v>
       </c>
       <c r="D284" s="7">
@@ -6686,7 +6696,7 @@
         <v>124560.84000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>4</v>
       </c>
@@ -6694,7 +6704,7 @@
         <v>62</v>
       </c>
       <c r="C285" t="str">
-        <f>TRIM(LEFT(B285, FIND(" Average", B285) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Switzerland</v>
       </c>
       <c r="D285" s="7">
@@ -6707,7 +6717,7 @@
         <v>151429.34000000003</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>5</v>
       </c>
@@ -6715,7 +6725,7 @@
         <v>62</v>
       </c>
       <c r="C286" t="str">
-        <f>TRIM(LEFT(B286, FIND(" Average", B286) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Switzerland</v>
       </c>
       <c r="D286" s="7">
@@ -6728,7 +6738,7 @@
         <v>70079.37000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>1</v>
       </c>
@@ -6736,7 +6746,7 @@
         <v>63</v>
       </c>
       <c r="C287" t="str">
-        <f>TRIM(LEFT(B287, FIND(" Average", B287) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Taiwan</v>
       </c>
       <c r="D287" s="7">
@@ -6749,7 +6759,7 @@
         <v>77968.998999999996</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>2</v>
       </c>
@@ -6757,7 +6767,7 @@
         <v>63</v>
       </c>
       <c r="C288" t="str">
-        <f>TRIM(LEFT(B288, FIND(" Average", B288) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Taiwan</v>
       </c>
       <c r="D288" s="7">
@@ -6770,7 +6780,7 @@
         <v>55863.178</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>3</v>
       </c>
@@ -6778,7 +6788,7 @@
         <v>63</v>
       </c>
       <c r="C289" t="str">
-        <f>TRIM(LEFT(B289, FIND(" Average", B289) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Taiwan</v>
       </c>
       <c r="D289" s="7">
@@ -6791,7 +6801,7 @@
         <v>43755.849000000002</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>4</v>
       </c>
@@ -6799,7 +6809,7 @@
         <v>63</v>
       </c>
       <c r="C290" t="str">
-        <f>TRIM(LEFT(B290, FIND(" Average", B290) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Taiwan</v>
       </c>
       <c r="D290" s="7">
@@ -6812,7 +6822,7 @@
         <v>53620.358999999997</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>5</v>
       </c>
@@ -6820,7 +6830,7 @@
         <v>63</v>
       </c>
       <c r="C291" t="str">
-        <f>TRIM(LEFT(B291, FIND(" Average", B291) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Taiwan</v>
       </c>
       <c r="D291" s="7">
@@ -6833,7 +6843,7 @@
         <v>20289.686000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>1</v>
       </c>
@@ -6841,7 +6851,7 @@
         <v>64</v>
       </c>
       <c r="C292" t="str">
-        <f>TRIM(LEFT(B292, FIND(" Average", B292) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Thailand</v>
       </c>
       <c r="D292" s="7">
@@ -6854,7 +6864,7 @@
         <v>40191.093000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>2</v>
       </c>
@@ -6862,7 +6872,7 @@
         <v>64</v>
       </c>
       <c r="C293" t="str">
-        <f>TRIM(LEFT(B293, FIND(" Average", B293) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Thailand</v>
       </c>
       <c r="D293" s="7">
@@ -6875,7 +6885,7 @@
         <v>24393.905999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>3</v>
       </c>
@@ -6883,7 +6893,7 @@
         <v>64</v>
       </c>
       <c r="C294" t="str">
-        <f>TRIM(LEFT(B294, FIND(" Average", B294) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Thailand</v>
       </c>
       <c r="D294" s="7">
@@ -6896,7 +6906,7 @@
         <v>19107.062999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>4</v>
       </c>
@@ -6904,7 +6914,7 @@
         <v>64</v>
       </c>
       <c r="C295" t="str">
-        <f>TRIM(LEFT(B295, FIND(" Average", B295) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Thailand</v>
       </c>
       <c r="D295" s="7">
@@ -6917,7 +6927,7 @@
         <v>26547.992999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>5</v>
       </c>
@@ -6925,7 +6935,7 @@
         <v>64</v>
       </c>
       <c r="C296" t="str">
-        <f>TRIM(LEFT(B296, FIND(" Average", B296) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Thailand</v>
       </c>
       <c r="D296" s="7">
@@ -6938,7 +6948,7 @@
         <v>9728.2350000000006</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>1</v>
       </c>
@@ -6946,7 +6956,7 @@
         <v>65</v>
       </c>
       <c r="C297" t="str">
-        <f>TRIM(LEFT(B297, FIND(" Average", B297) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Turkey</v>
       </c>
       <c r="D297" s="7">
@@ -6959,7 +6969,7 @@
         <v>34250.567000000003</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>2</v>
       </c>
@@ -6967,7 +6977,7 @@
         <v>65</v>
       </c>
       <c r="C298" t="str">
-        <f>TRIM(LEFT(B298, FIND(" Average", B298) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Turkey</v>
       </c>
       <c r="D298" s="7">
@@ -6980,7 +6990,7 @@
         <v>20756.080999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>3</v>
       </c>
@@ -6988,7 +6998,7 @@
         <v>65</v>
       </c>
       <c r="C299" t="str">
-        <f>TRIM(LEFT(B299, FIND(" Average", B299) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Turkey</v>
       </c>
       <c r="D299" s="7">
@@ -7001,7 +7011,7 @@
         <v>16257.825999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>4</v>
       </c>
@@ -7009,7 +7019,7 @@
         <v>65</v>
       </c>
       <c r="C300" t="str">
-        <f>TRIM(LEFT(B300, FIND(" Average", B300) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Turkey</v>
       </c>
       <c r="D300" s="7">
@@ -7022,7 +7032,7 @@
         <v>27072.052</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>5</v>
       </c>
@@ -7030,7 +7040,7 @@
         <v>65</v>
       </c>
       <c r="C301" t="str">
-        <f>TRIM(LEFT(B301, FIND(" Average", B301) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Turkey</v>
       </c>
       <c r="D301" s="7">
@@ -7043,7 +7053,7 @@
         <v>20136.638999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>1</v>
       </c>
@@ -7051,7 +7061,7 @@
         <v>66</v>
       </c>
       <c r="C302" t="str">
-        <f>TRIM(LEFT(B302, FIND(" Average", B302) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Ukraine</v>
       </c>
       <c r="D302" s="7">
@@ -7064,7 +7074,7 @@
         <v>28587.65</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>2</v>
       </c>
@@ -7072,7 +7082,7 @@
         <v>66</v>
       </c>
       <c r="C303" t="str">
-        <f>TRIM(LEFT(B303, FIND(" Average", B303) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Ukraine</v>
       </c>
       <c r="D303" s="7">
@@ -7085,7 +7095,7 @@
         <v>13117.85</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>3</v>
       </c>
@@ -7093,7 +7103,7 @@
         <v>66</v>
       </c>
       <c r="C304" t="str">
-        <f>TRIM(LEFT(B304, FIND(" Average", B304) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Ukraine</v>
       </c>
       <c r="D304" s="7">
@@ -7106,7 +7116,7 @@
         <v>10274.975</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>4</v>
       </c>
@@ -7114,7 +7124,7 @@
         <v>66</v>
       </c>
       <c r="C305" t="str">
-        <f>TRIM(LEFT(B305, FIND(" Average", B305) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Ukraine</v>
       </c>
       <c r="D305" s="7">
@@ -7127,7 +7137,7 @@
         <v>13093.875</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>5</v>
       </c>
@@ -7135,7 +7145,7 @@
         <v>66</v>
       </c>
       <c r="C306" t="str">
-        <f>TRIM(LEFT(B306, FIND(" Average", B306) - 1))</f>
+        <f t="shared" si="4"/>
         <v>Ukraine</v>
       </c>
       <c r="D306" s="7">
@@ -7148,7 +7158,7 @@
         <v>4832.6000000000004</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>1</v>
       </c>
@@ -7156,7 +7166,7 @@
         <v>67</v>
       </c>
       <c r="C307" t="str">
-        <f>TRIM(LEFT(B307, FIND(" Average", B307) - 1))</f>
+        <f t="shared" si="4"/>
         <v>United Arab Emirates</v>
       </c>
       <c r="D307" s="7">
@@ -7169,7 +7179,7 @@
         <v>115721.73000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>2</v>
       </c>
@@ -7177,7 +7187,7 @@
         <v>67</v>
       </c>
       <c r="C308" t="str">
-        <f>TRIM(LEFT(B308, FIND(" Average", B308) - 1))</f>
+        <f t="shared" si="4"/>
         <v>United Arab Emirates</v>
       </c>
       <c r="D308" s="7">
@@ -7190,7 +7200,7 @@
         <v>83670.840000000011</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>3</v>
       </c>
@@ -7198,7 +7208,7 @@
         <v>67</v>
       </c>
       <c r="C309" t="str">
-        <f>TRIM(LEFT(B309, FIND(" Average", B309) - 1))</f>
+        <f t="shared" si="4"/>
         <v>United Arab Emirates</v>
       </c>
       <c r="D309" s="7">
@@ -7211,7 +7221,7 @@
         <v>65536.83</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>4</v>
       </c>
@@ -7219,7 +7229,7 @@
         <v>67</v>
       </c>
       <c r="C310" t="str">
-        <f>TRIM(LEFT(B310, FIND(" Average", B310) - 1))</f>
+        <f t="shared" si="4"/>
         <v>United Arab Emirates</v>
       </c>
       <c r="D310" s="7">
@@ -7232,7 +7242,7 @@
         <v>84080.97</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>5</v>
       </c>
@@ -7240,7 +7250,7 @@
         <v>67</v>
       </c>
       <c r="C311" t="str">
-        <f>TRIM(LEFT(B311, FIND(" Average", B311) - 1))</f>
+        <f t="shared" si="4"/>
         <v>United Arab Emirates</v>
       </c>
       <c r="D311" s="7">
@@ -7253,7 +7263,7 @@
         <v>30333.420000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>1</v>
       </c>
@@ -7261,7 +7271,7 @@
         <v>68</v>
       </c>
       <c r="C312" t="str">
-        <f>TRIM(LEFT(B312, FIND(" Average", B312) - 1))</f>
+        <f t="shared" si="4"/>
         <v>United Kingdom</v>
       </c>
       <c r="D312" s="7">
@@ -7274,7 +7284,7 @@
         <v>112412.16</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>2</v>
       </c>
@@ -7282,7 +7292,7 @@
         <v>68</v>
       </c>
       <c r="C313" t="str">
-        <f>TRIM(LEFT(B313, FIND(" Average", B313) - 1))</f>
+        <f t="shared" si="4"/>
         <v>United Kingdom</v>
       </c>
       <c r="D313" s="7">
@@ -7295,7 +7305,7 @@
         <v>91668.479999999996</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>3</v>
       </c>
@@ -7303,7 +7313,7 @@
         <v>68</v>
       </c>
       <c r="C314" t="str">
-        <f>TRIM(LEFT(B314, FIND(" Average", B314) - 1))</f>
+        <f t="shared" si="4"/>
         <v>United Kingdom</v>
       </c>
       <c r="D314" s="7">
@@ -7316,7 +7326,7 @@
         <v>71801.600000000006</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>4</v>
       </c>
@@ -7324,7 +7334,7 @@
         <v>68</v>
       </c>
       <c r="C315" t="str">
-        <f>TRIM(LEFT(B315, FIND(" Average", B315) - 1))</f>
+        <f t="shared" si="4"/>
         <v>United Kingdom</v>
       </c>
       <c r="D315" s="7">
@@ -7337,7 +7347,7 @@
         <v>84641.279999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>5</v>
       </c>
@@ -7345,7 +7355,7 @@
         <v>68</v>
       </c>
       <c r="C316" t="str">
-        <f>TRIM(LEFT(B316, FIND(" Average", B316) - 1))</f>
+        <f t="shared" si="4"/>
         <v>United Kingdom</v>
       </c>
       <c r="D316" s="7">
@@ -7358,7 +7368,7 @@
         <v>40773.120000000003</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>1</v>
       </c>
@@ -7366,7 +7376,7 @@
         <v>69</v>
       </c>
       <c r="C317" t="str">
-        <f>TRIM(LEFT(B317, FIND(" Average", B317) - 1))</f>
+        <f t="shared" si="4"/>
         <v>United States</v>
       </c>
       <c r="D317" s="7">
@@ -7379,7 +7389,7 @@
         <v>176494</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>2</v>
       </c>
@@ -7387,7 +7397,7 @@
         <v>69</v>
       </c>
       <c r="C318" t="str">
-        <f>TRIM(LEFT(B318, FIND(" Average", B318) - 1))</f>
+        <f t="shared" si="4"/>
         <v>United States</v>
       </c>
       <c r="D318" s="7">
@@ -7400,7 +7410,7 @@
         <v>124649</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>3</v>
       </c>
@@ -7408,7 +7418,7 @@
         <v>69</v>
       </c>
       <c r="C319" t="str">
-        <f>TRIM(LEFT(B319, FIND(" Average", B319) - 1))</f>
+        <f t="shared" si="4"/>
         <v>United States</v>
       </c>
       <c r="D319" s="7">
@@ -7421,7 +7431,7 @@
         <v>98257</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>4</v>
       </c>
@@ -7429,7 +7439,7 @@
         <v>69</v>
       </c>
       <c r="C320" t="str">
-        <f>TRIM(LEFT(B320, FIND(" Average", B320) - 1))</f>
+        <f t="shared" si="4"/>
         <v>United States</v>
       </c>
       <c r="D320" s="7">
@@ -7442,7 +7452,7 @@
         <v>114268</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>5</v>
       </c>
@@ -7450,7 +7460,7 @@
         <v>69</v>
       </c>
       <c r="C321" t="str">
-        <f>TRIM(LEFT(B321, FIND(" Average", B321) - 1))</f>
+        <f t="shared" si="4"/>
         <v>United States</v>
       </c>
       <c r="D321" s="7">
@@ -7463,7 +7473,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>1</v>
       </c>
@@ -7471,7 +7481,7 @@
         <v>70</v>
       </c>
       <c r="C322" t="str">
-        <f>TRIM(LEFT(B322, FIND(" Average", B322) - 1))</f>
+        <f t="shared" ref="C322:C385" si="5">TRIM(LEFT(B322, FIND(" Average", B322) - 1))</f>
         <v>Vietnam</v>
       </c>
       <c r="D322" s="7">
@@ -7484,7 +7494,7 @@
         <v>31655.158626</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>2</v>
       </c>
@@ -7492,7 +7502,7 @@
         <v>70</v>
       </c>
       <c r="C323" t="str">
-        <f>TRIM(LEFT(B323, FIND(" Average", B323) - 1))</f>
+        <f t="shared" si="5"/>
         <v>Vietnam</v>
       </c>
       <c r="D323" s="7">
@@ -7505,7 +7515,7 @@
         <v>23354.415356999998</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>3</v>
       </c>
@@ -7513,7 +7523,7 @@
         <v>70</v>
       </c>
       <c r="C324" t="str">
-        <f>TRIM(LEFT(B324, FIND(" Average", B324) - 1))</f>
+        <f t="shared" si="5"/>
         <v>Vietnam</v>
       </c>
       <c r="D324" s="7">
@@ -7526,7 +7536,7 @@
         <v>18293.046719999998</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>4</v>
       </c>
@@ -7534,7 +7544,7 @@
         <v>70</v>
       </c>
       <c r="C325" t="str">
-        <f>TRIM(LEFT(B325, FIND(" Average", B325) - 1))</f>
+        <f t="shared" si="5"/>
         <v>Vietnam</v>
       </c>
       <c r="D325" s="7">
@@ -7547,7 +7557,7 @@
         <v>12100.290617999999</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>5</v>
       </c>
@@ -7555,7 +7565,7 @@
         <v>70</v>
       </c>
       <c r="C326" t="str">
-        <f>TRIM(LEFT(B326, FIND(" Average", B326) - 1))</f>
+        <f t="shared" si="5"/>
         <v>Vietnam</v>
       </c>
       <c r="D326" s="7">
